--- a/EC/Train Runs and Enforcements 2016-05-09.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enforcements!$A$2:$N$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$2:$AA$147</definedName>
-    <definedName name="Denver_Train_Runs_04122016" localSheetId="0">'Train Runs'!$A$2:$J$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$2:$AA$148</definedName>
+    <definedName name="Denver_Train_Runs_04122016" localSheetId="0">'Train Runs'!$A$2:$J$153</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="477">
   <si>
     <t>Train ID</t>
   </si>
@@ -1478,13 +1478,13 @@
     <t>TMC entered a failed state</t>
   </si>
   <si>
-    <t>Investigating</t>
-  </si>
-  <si>
-    <t>TMC experienced change to direction of travel</t>
-  </si>
-  <si>
-    <t>Observed emergency brake applications, more investigation needed.</t>
+    <t>Mechanical failure on alerter, all systems had to be cut out and re-enabled. Ran remainder of trip in ATC to keep schedule</t>
+  </si>
+  <si>
+    <t>Delay incurred by passenger improperly exiting train. Ran remainder of trip in ATC to keep schedule.</t>
+  </si>
+  <si>
+    <t>Data issues with initialization, ran trip in ATC to keep schedule</t>
   </si>
 </sst>
 </file>
@@ -2327,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK164"/>
+  <dimension ref="A1:CK165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q133" sqref="Q133"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8041,7 +8041,7 @@
         <v>Y</v>
       </c>
       <c r="V68" s="75">
-        <f t="shared" ref="V68:V131" si="23">VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
+        <f t="shared" ref="V68:V132" si="23">VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
         <v>0</v>
       </c>
       <c r="W68" s="75">
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="61" t="str">
-        <f t="shared" ref="K81:K112" si="24">IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
+        <f t="shared" ref="K81:K113" si="24">IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
         <v>4015/4016</v>
       </c>
       <c r="L81" s="61" t="str">
@@ -9114,11 +9114,11 @@
         <v>STORY</v>
       </c>
       <c r="M81" s="12">
-        <f t="shared" ref="M81:M112" si="25">I81-F81</f>
+        <f t="shared" ref="M81:M113" si="25">I81-F81</f>
         <v>3.5208333334594499E-2</v>
       </c>
       <c r="N81" s="13">
-        <f t="shared" ref="N81:P144" si="26">$M81*24*60</f>
+        <f t="shared" ref="N81:P145" si="26">$M81*24*60</f>
         <v>50.700000001816079</v>
       </c>
       <c r="O81" s="13"/>
@@ -9210,11 +9210,11 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="75" t="str">
-        <f t="shared" ref="T82:T145" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T82:T146" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 13:29:07-0600',mode:absolute,to:'2016-05-09 14:09:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="75" t="str">
-        <f t="shared" ref="U82:U145" si="28">IF(Y82&lt;23,"Y","N")</f>
+        <f t="shared" ref="U82:U146" si="28">IF(Y82&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V82" s="75">
@@ -9222,15 +9222,15 @@
         <v>1</v>
       </c>
       <c r="W82" s="75">
-        <f t="shared" ref="W82:W145" si="29">RIGHT(D82,LEN(D82)-4)/10000</f>
+        <f t="shared" ref="W82:W146" si="29">RIGHT(D82,LEN(D82)-4)/10000</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X82" s="75">
-        <f t="shared" ref="X82:X145" si="30">RIGHT(H82,LEN(H82)-4)/10000</f>
+        <f t="shared" ref="X82:X146" si="30">RIGHT(H82,LEN(H82)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y82" s="75">
-        <f t="shared" ref="Y82:Y145" si="31">ABS(X82-W82)</f>
+        <f t="shared" ref="Y82:Y146" si="31">ABS(X82-W82)</f>
         <v>23.282599999999999</v>
       </c>
       <c r="Z82" s="76" t="e">
@@ -9748,115 +9748,79 @@
     </row>
     <row r="89" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
-        <v>340</v>
+        <v>445</v>
       </c>
       <c r="B89" s="61">
-        <v>4027</v>
-      </c>
-      <c r="C89" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="E89" s="30">
-        <v>42499.59884259259</v>
-      </c>
+        <v>4010</v>
+      </c>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="30">
-        <v>42499.599953703706</v>
-      </c>
-      <c r="G89" s="38">
-        <v>1</v>
-      </c>
-      <c r="H89" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I89" s="30">
-        <v>42499.629699074074</v>
-      </c>
-      <c r="J89" s="61">
-        <v>0</v>
-      </c>
+        <v>42499.628657407404</v>
+      </c>
+      <c r="G89" s="38"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="61"/>
       <c r="K89" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4027/4028</v>
+        <v>4009/4010</v>
       </c>
       <c r="L89" s="61" t="str">
         <f>VLOOKUP(A89,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>WEBSTER</v>
-      </c>
-      <c r="M89" s="12">
-        <f t="shared" si="25"/>
-        <v>2.9745370367891155E-2</v>
-      </c>
-      <c r="N89" s="13">
-        <f t="shared" si="26"/>
-        <v>42.833333329763263</v>
-      </c>
+        <v>ADANE</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N89" s="13"/>
       <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
+      <c r="P89" s="13">
+        <v>0.1</v>
+      </c>
       <c r="Q89" s="62"/>
-      <c r="R89" s="62"/>
-      <c r="T89" s="75" t="str">
-        <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 14:21:20-0600',mode:absolute,to:'2016-05-09 15:07:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U89" s="75" t="str">
-        <f t="shared" si="28"/>
-        <v>N</v>
-      </c>
-      <c r="V89" s="75">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="W89" s="75">
-        <f t="shared" si="29"/>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="X89" s="75">
-        <f t="shared" si="30"/>
-        <v>23.329499999999999</v>
-      </c>
-      <c r="Y89" s="75">
-        <f t="shared" si="31"/>
-        <v>23.281099999999999</v>
-      </c>
-      <c r="Z89" s="76" t="e">
-        <f>VLOOKUP(A89,Enforcements!$C$3:$J$26,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA89" s="76" t="e">
-        <f>VLOOKUP(A89,Enforcements!$C$3:$J$26,3,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="R89" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="T89" s="75"/>
+      <c r="U89" s="75"/>
+      <c r="V89" s="75"/>
+      <c r="W89" s="75"/>
+      <c r="X89" s="75"/>
+      <c r="Y89" s="75"/>
+      <c r="Z89" s="76"/>
+      <c r="AA89" s="76"/>
     </row>
     <row r="90" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B90" s="61">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="C90" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E90" s="30">
-        <v>42499.636608796296</v>
+        <v>42499.59884259259</v>
       </c>
       <c r="F90" s="30">
-        <v>42499.637465277781</v>
+        <v>42499.599953703706</v>
       </c>
       <c r="G90" s="38">
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="I90" s="30">
-        <v>42499.669224537036</v>
+        <v>42499.629699074074</v>
       </c>
       <c r="J90" s="61">
         <v>0</v>
@@ -9871,11 +9835,11 @@
       </c>
       <c r="M90" s="12">
         <f t="shared" si="25"/>
-        <v>3.1759259254613426E-2</v>
+        <v>2.9745370367891155E-2</v>
       </c>
       <c r="N90" s="13">
         <f t="shared" si="26"/>
-        <v>45.733333326643333</v>
+        <v>42.833333329763263</v>
       </c>
       <c r="O90" s="13"/>
       <c r="P90" s="13"/>
@@ -9883,27 +9847,27 @@
       <c r="R90" s="62"/>
       <c r="T90" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:15:43-0600',mode:absolute,to:'2016-05-09 16:04:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 14:21:20-0600',mode:absolute,to:'2016-05-09 15:07:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="75" t="str">
         <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V90" s="75">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A88,3))</f>
+        <v>2</v>
       </c>
       <c r="W90" s="75">
         <f t="shared" si="29"/>
-        <v>23.2986</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="X90" s="75">
         <f t="shared" si="30"/>
-        <v>1.52E-2</v>
+        <v>23.329499999999999</v>
       </c>
       <c r="Y90" s="75">
         <f t="shared" si="31"/>
-        <v>23.2834</v>
+        <v>23.281099999999999</v>
       </c>
       <c r="Z90" s="76" t="e">
         <f>VLOOKUP(A90,Enforcements!$C$3:$J$26,8,0)</f>
@@ -9916,50 +9880,50 @@
     </row>
     <row r="91" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B91" s="61">
-        <v>4025</v>
+        <v>4028</v>
       </c>
       <c r="C91" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="E91" s="30">
-        <v>42499.608518518522</v>
+        <v>42499.636608796296</v>
       </c>
       <c r="F91" s="30">
-        <v>42499.6096875</v>
+        <v>42499.637465277781</v>
       </c>
       <c r="G91" s="38">
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="I91" s="30">
-        <v>42499.639849537038</v>
+        <v>42499.669224537036</v>
       </c>
       <c r="J91" s="61">
         <v>0</v>
       </c>
       <c r="K91" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4025/4026</v>
+        <v>4027/4028</v>
       </c>
       <c r="L91" s="61" t="str">
         <f>VLOOKUP(A91,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>RIVERA</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M91" s="12">
         <f t="shared" si="25"/>
-        <v>3.0162037037371192E-2</v>
+        <v>3.1759259254613426E-2</v>
       </c>
       <c r="N91" s="13">
         <f t="shared" si="26"/>
-        <v>43.433333333814517</v>
+        <v>45.733333326643333</v>
       </c>
       <c r="O91" s="13"/>
       <c r="P91" s="13"/>
@@ -9967,7 +9931,7 @@
       <c r="R91" s="62"/>
       <c r="T91" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 14:35:16-0600',mode:absolute,to:'2016-05-09 15:22:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:15:43-0600',mode:absolute,to:'2016-05-09 16:04:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="75" t="str">
         <f t="shared" si="28"/>
@@ -9979,15 +9943,15 @@
       </c>
       <c r="W91" s="75">
         <f t="shared" si="29"/>
-        <v>4.3700000000000003E-2</v>
+        <v>23.2986</v>
       </c>
       <c r="X91" s="75">
         <f t="shared" si="30"/>
-        <v>23.333100000000002</v>
+        <v>1.52E-2</v>
       </c>
       <c r="Y91" s="75">
         <f t="shared" si="31"/>
-        <v>23.289400000000001</v>
+        <v>23.2834</v>
       </c>
       <c r="Z91" s="76" t="e">
         <f>VLOOKUP(A91,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10000,31 +9964,31 @@
     </row>
     <row r="92" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B92" s="61">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="C92" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E92" s="30">
-        <v>42499.647604166668</v>
+        <v>42499.608518518522</v>
       </c>
       <c r="F92" s="30">
-        <v>42499.648738425924</v>
+        <v>42499.6096875</v>
       </c>
       <c r="G92" s="38">
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="I92" s="30">
-        <v>42499.679120370369</v>
+        <v>42499.639849537038</v>
       </c>
       <c r="J92" s="61">
         <v>0</v>
@@ -10039,11 +10003,11 @@
       </c>
       <c r="M92" s="12">
         <f t="shared" si="25"/>
-        <v>3.0381944445252884E-2</v>
+        <v>3.0162037037371192E-2</v>
       </c>
       <c r="N92" s="13">
         <f t="shared" si="26"/>
-        <v>43.750000001164153</v>
+        <v>43.433333333814517</v>
       </c>
       <c r="O92" s="13"/>
       <c r="P92" s="13"/>
@@ -10051,7 +10015,7 @@
       <c r="R92" s="62"/>
       <c r="T92" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:31:33-0600',mode:absolute,to:'2016-05-09 16:18:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 14:35:16-0600',mode:absolute,to:'2016-05-09 15:22:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10063,15 +10027,15 @@
       </c>
       <c r="W92" s="75">
         <f t="shared" si="29"/>
-        <v>23.300599999999999</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="X92" s="75">
         <f t="shared" si="30"/>
-        <v>1.29E-2</v>
+        <v>23.333100000000002</v>
       </c>
       <c r="Y92" s="75">
         <f t="shared" si="31"/>
-        <v>23.287700000000001</v>
+        <v>23.289400000000001</v>
       </c>
       <c r="Z92" s="76" t="e">
         <f>VLOOKUP(A92,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10084,50 +10048,50 @@
     </row>
     <row r="93" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B93" s="61">
-        <v>4016</v>
+        <v>4026</v>
       </c>
       <c r="C93" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E93" s="30">
-        <v>42499.618692129632</v>
+        <v>42499.647604166668</v>
       </c>
       <c r="F93" s="30">
-        <v>42499.619803240741</v>
+        <v>42499.648738425924</v>
       </c>
       <c r="G93" s="38">
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="I93" s="30">
-        <v>42499.650243055556</v>
+        <v>42499.679120370369</v>
       </c>
       <c r="J93" s="61">
         <v>0</v>
       </c>
       <c r="K93" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4015/4016</v>
+        <v>4025/4026</v>
       </c>
       <c r="L93" s="61" t="str">
         <f>VLOOKUP(A93,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>STORY</v>
+        <v>RIVERA</v>
       </c>
       <c r="M93" s="12">
         <f t="shared" si="25"/>
-        <v>3.0439814814599231E-2</v>
+        <v>3.0381944445252884E-2</v>
       </c>
       <c r="N93" s="13">
         <f t="shared" si="26"/>
-        <v>43.833333333022892</v>
+        <v>43.750000001164153</v>
       </c>
       <c r="O93" s="13"/>
       <c r="P93" s="13"/>
@@ -10135,7 +10099,7 @@
       <c r="R93" s="62"/>
       <c r="T93" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 14:49:55-0600',mode:absolute,to:'2016-05-09 15:37:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:31:33-0600',mode:absolute,to:'2016-05-09 16:18:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10147,15 +10111,15 @@
       </c>
       <c r="W93" s="75">
         <f t="shared" si="29"/>
-        <v>4.4400000000000002E-2</v>
+        <v>23.300599999999999</v>
       </c>
       <c r="X93" s="75">
         <f t="shared" si="30"/>
-        <v>23.331399999999999</v>
+        <v>1.29E-2</v>
       </c>
       <c r="Y93" s="75">
         <f t="shared" si="31"/>
-        <v>23.286999999999999</v>
+        <v>23.287700000000001</v>
       </c>
       <c r="Z93" s="76" t="e">
         <f>VLOOKUP(A93,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10168,31 +10132,31 @@
     </row>
     <row r="94" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B94" s="61">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="C94" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E94" s="30">
-        <v>42499.652430555558</v>
+        <v>42499.618692129632</v>
       </c>
       <c r="F94" s="30">
-        <v>42499.653287037036</v>
+        <v>42499.619803240741</v>
       </c>
       <c r="G94" s="38">
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I94" s="30">
-        <v>42499.689675925925</v>
+        <v>42499.650243055556</v>
       </c>
       <c r="J94" s="61">
         <v>0</v>
@@ -10207,11 +10171,11 @@
       </c>
       <c r="M94" s="12">
         <f t="shared" si="25"/>
-        <v>3.6388888889632653E-2</v>
+        <v>3.0439814814599231E-2</v>
       </c>
       <c r="N94" s="13">
         <f t="shared" si="26"/>
-        <v>52.400000001071021</v>
+        <v>43.833333333022892</v>
       </c>
       <c r="O94" s="13"/>
       <c r="P94" s="13"/>
@@ -10219,7 +10183,7 @@
       <c r="R94" s="62"/>
       <c r="T94" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:38:30-0600',mode:absolute,to:'2016-05-09 16:34:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 14:49:55-0600',mode:absolute,to:'2016-05-09 15:37:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10231,15 +10195,15 @@
       </c>
       <c r="W94" s="75">
         <f t="shared" si="29"/>
-        <v>23.297999999999998</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="X94" s="75">
         <f t="shared" si="30"/>
-        <v>1.61E-2</v>
+        <v>23.331399999999999</v>
       </c>
       <c r="Y94" s="75">
         <f t="shared" si="31"/>
-        <v>23.281899999999997</v>
+        <v>23.286999999999999</v>
       </c>
       <c r="Z94" s="76" t="e">
         <f>VLOOKUP(A94,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10252,50 +10216,50 @@
     </row>
     <row r="95" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B95" s="61">
-        <v>4024</v>
+        <v>4015</v>
       </c>
       <c r="C95" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E95" s="30">
-        <v>42499.631562499999</v>
+        <v>42499.652430555558</v>
       </c>
       <c r="F95" s="30">
-        <v>42499.632638888892</v>
+        <v>42499.653287037036</v>
       </c>
       <c r="G95" s="38">
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I95" s="30">
-        <v>42499.660902777781</v>
+        <v>42499.689675925925</v>
       </c>
       <c r="J95" s="61">
         <v>0</v>
       </c>
       <c r="K95" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4023/4024</v>
+        <v>4015/4016</v>
       </c>
       <c r="L95" s="61" t="str">
         <f>VLOOKUP(A95,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>NELSON</v>
+        <v>STORY</v>
       </c>
       <c r="M95" s="12">
         <f t="shared" si="25"/>
-        <v>2.8263888889341615E-2</v>
+        <v>3.6388888889632653E-2</v>
       </c>
       <c r="N95" s="13">
         <f t="shared" si="26"/>
-        <v>40.700000000651926</v>
+        <v>52.400000001071021</v>
       </c>
       <c r="O95" s="13"/>
       <c r="P95" s="13"/>
@@ -10303,7 +10267,7 @@
       <c r="R95" s="62"/>
       <c r="T95" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:08:27-0600',mode:absolute,to:'2016-05-09 15:52:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:38:30-0600',mode:absolute,to:'2016-05-09 16:34:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10315,15 +10279,15 @@
       </c>
       <c r="W95" s="75">
         <f t="shared" si="29"/>
-        <v>4.4400000000000002E-2</v>
+        <v>23.297999999999998</v>
       </c>
       <c r="X95" s="75">
         <f t="shared" si="30"/>
-        <v>23.328900000000001</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Y95" s="75">
         <f t="shared" si="31"/>
-        <v>23.284500000000001</v>
+        <v>23.281899999999997</v>
       </c>
       <c r="Z95" s="76" t="e">
         <f>VLOOKUP(A95,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10336,31 +10300,31 @@
     </row>
     <row r="96" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B96" s="61">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C96" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="E96" s="30">
-        <v>42499.671203703707</v>
+        <v>42499.631562499999</v>
       </c>
       <c r="F96" s="30">
-        <v>42499.672118055554</v>
+        <v>42499.632638888892</v>
       </c>
       <c r="G96" s="38">
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="I96" s="30">
-        <v>42499.701331018521</v>
+        <v>42499.660902777781</v>
       </c>
       <c r="J96" s="61">
         <v>0</v>
@@ -10375,11 +10339,11 @@
       </c>
       <c r="M96" s="12">
         <f t="shared" si="25"/>
-        <v>2.9212962966994382E-2</v>
+        <v>2.8263888889341615E-2</v>
       </c>
       <c r="N96" s="13">
         <f t="shared" si="26"/>
-        <v>42.066666672471911</v>
+        <v>40.700000000651926</v>
       </c>
       <c r="O96" s="13"/>
       <c r="P96" s="13"/>
@@ -10387,7 +10351,7 @@
       <c r="R96" s="62"/>
       <c r="T96" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:05:32-0600',mode:absolute,to:'2016-05-09 16:50:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:08:27-0600',mode:absolute,to:'2016-05-09 15:52:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10399,15 +10363,15 @@
       </c>
       <c r="W96" s="75">
         <f t="shared" si="29"/>
-        <v>23.298100000000002</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="X96" s="75">
         <f t="shared" si="30"/>
-        <v>1.54E-2</v>
+        <v>23.328900000000001</v>
       </c>
       <c r="Y96" s="75">
         <f t="shared" si="31"/>
-        <v>23.282700000000002</v>
+        <v>23.284500000000001</v>
       </c>
       <c r="Z96" s="76" t="e">
         <f>VLOOKUP(A96,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10420,50 +10384,50 @@
     </row>
     <row r="97" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B97" s="61">
-        <v>4044</v>
+        <v>4023</v>
       </c>
       <c r="C97" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E97" s="30">
-        <v>42499.640543981484</v>
+        <v>42499.671203703707</v>
       </c>
       <c r="F97" s="30">
-        <v>42499.644733796296</v>
+        <v>42499.672118055554</v>
       </c>
       <c r="G97" s="38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="I97" s="30">
-        <v>42499.670763888891</v>
+        <v>42499.701331018521</v>
       </c>
       <c r="J97" s="61">
         <v>0</v>
       </c>
       <c r="K97" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4043/4044</v>
+        <v>4023/4024</v>
       </c>
       <c r="L97" s="61" t="str">
         <f>VLOOKUP(A97,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>ACKERMAN</v>
+        <v>NELSON</v>
       </c>
       <c r="M97" s="12">
         <f t="shared" si="25"/>
-        <v>2.6030092594737653E-2</v>
+        <v>2.9212962966994382E-2</v>
       </c>
       <c r="N97" s="13">
         <f t="shared" si="26"/>
-        <v>37.48333333642222</v>
+        <v>42.066666672471911</v>
       </c>
       <c r="O97" s="13"/>
       <c r="P97" s="13"/>
@@ -10471,7 +10435,7 @@
       <c r="R97" s="62"/>
       <c r="T97" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:21:23-0600',mode:absolute,to:'2016-05-09 16:06:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:05:32-0600',mode:absolute,to:'2016-05-09 16:50:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10483,15 +10447,15 @@
       </c>
       <c r="W97" s="75">
         <f t="shared" si="29"/>
-        <v>4.5999999999999999E-2</v>
+        <v>23.298100000000002</v>
       </c>
       <c r="X97" s="75">
         <f t="shared" si="30"/>
-        <v>23.328900000000001</v>
+        <v>1.54E-2</v>
       </c>
       <c r="Y97" s="75">
         <f t="shared" si="31"/>
-        <v>23.282900000000001</v>
+        <v>23.282700000000002</v>
       </c>
       <c r="Z97" s="76" t="e">
         <f>VLOOKUP(A97,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10504,34 +10468,34 @@
     </row>
     <row r="98" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B98" s="61">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C98" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E98" s="30">
-        <v>42499.678981481484</v>
+        <v>42499.640543981484</v>
       </c>
       <c r="F98" s="30">
-        <v>42499.679837962962</v>
+        <v>42499.644733796296</v>
       </c>
       <c r="G98" s="38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="I98" s="30">
-        <v>42499.710868055554</v>
+        <v>42499.670763888891</v>
       </c>
       <c r="J98" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="61" t="str">
         <f t="shared" si="24"/>
@@ -10543,11 +10507,11 @@
       </c>
       <c r="M98" s="12">
         <f t="shared" si="25"/>
-        <v>3.1030092592118308E-2</v>
+        <v>2.6030092594737653E-2</v>
       </c>
       <c r="N98" s="13">
         <f t="shared" si="26"/>
-        <v>44.683333332650363</v>
+        <v>37.48333333642222</v>
       </c>
       <c r="O98" s="13"/>
       <c r="P98" s="13"/>
@@ -10555,7 +10519,7 @@
       <c r="R98" s="62"/>
       <c r="T98" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:16:44-0600',mode:absolute,to:'2016-05-09 17:04:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:21:23-0600',mode:absolute,to:'2016-05-09 16:06:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10567,15 +10531,15 @@
       </c>
       <c r="W98" s="75">
         <f t="shared" si="29"/>
-        <v>23.298999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="X98" s="75">
         <f t="shared" si="30"/>
-        <v>1.6500000000000001E-2</v>
+        <v>23.328900000000001</v>
       </c>
       <c r="Y98" s="75">
         <f t="shared" si="31"/>
-        <v>23.282499999999999</v>
+        <v>23.282900000000001</v>
       </c>
       <c r="Z98" s="76" t="e">
         <f>VLOOKUP(A98,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10588,50 +10552,50 @@
     </row>
     <row r="99" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B99" s="61">
-        <v>4038</v>
+        <v>4043</v>
       </c>
       <c r="C99" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E99" s="30">
-        <v>42499.654791666668</v>
+        <v>42499.678981481484</v>
       </c>
       <c r="F99" s="30">
-        <v>42499.656076388892</v>
+        <v>42499.679837962962</v>
       </c>
       <c r="G99" s="38">
         <v>1</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="I99" s="30">
-        <v>42499.683379629627</v>
+        <v>42499.710868055554</v>
       </c>
       <c r="J99" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4037/4038</v>
+        <v>4043/4044</v>
       </c>
       <c r="L99" s="61" t="str">
         <f>VLOOKUP(A99,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>STRICKLAND</v>
+        <v>ACKERMAN</v>
       </c>
       <c r="M99" s="12">
         <f t="shared" si="25"/>
-        <v>2.7303240734909195E-2</v>
+        <v>3.1030092592118308E-2</v>
       </c>
       <c r="N99" s="13">
         <f t="shared" si="26"/>
-        <v>39.316666658269241</v>
+        <v>44.683333332650363</v>
       </c>
       <c r="O99" s="13"/>
       <c r="P99" s="13"/>
@@ -10639,7 +10603,7 @@
       <c r="R99" s="62"/>
       <c r="T99" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:41:54-0600',mode:absolute,to:'2016-05-09 16:25:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:16:44-0600',mode:absolute,to:'2016-05-09 17:04:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10651,15 +10615,15 @@
       </c>
       <c r="W99" s="75">
         <f t="shared" si="29"/>
-        <v>4.6399999999999997E-2</v>
+        <v>23.298999999999999</v>
       </c>
       <c r="X99" s="75">
         <f t="shared" si="30"/>
-        <v>23.334900000000001</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y99" s="75">
         <f t="shared" si="31"/>
-        <v>23.288500000000003</v>
+        <v>23.282499999999999</v>
       </c>
       <c r="Z99" s="76" t="e">
         <f>VLOOKUP(A99,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10672,31 +10636,31 @@
     </row>
     <row r="100" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B100" s="61">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="C100" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E100" s="30">
-        <v>42499.69259259259</v>
+        <v>42499.654791666668</v>
       </c>
       <c r="F100" s="30">
-        <v>42499.693530092591</v>
+        <v>42499.656076388892</v>
       </c>
       <c r="G100" s="38">
         <v>1</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="I100" s="30">
-        <v>42499.72115740741</v>
+        <v>42499.683379629627</v>
       </c>
       <c r="J100" s="61">
         <v>0</v>
@@ -10711,11 +10675,11 @@
       </c>
       <c r="M100" s="12">
         <f t="shared" si="25"/>
-        <v>2.7627314819255844E-2</v>
+        <v>2.7303240734909195E-2</v>
       </c>
       <c r="N100" s="13">
         <f t="shared" si="26"/>
-        <v>39.783333339728415</v>
+        <v>39.316666658269241</v>
       </c>
       <c r="O100" s="13"/>
       <c r="P100" s="13"/>
@@ -10723,7 +10687,7 @@
       <c r="R100" s="62"/>
       <c r="T100" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:36:20-0600',mode:absolute,to:'2016-05-09 17:19:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:41:54-0600',mode:absolute,to:'2016-05-09 16:25:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10735,15 +10699,15 @@
       </c>
       <c r="W100" s="75">
         <f t="shared" si="29"/>
-        <v>23.2989</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="X100" s="75">
         <f t="shared" si="30"/>
-        <v>1.67E-2</v>
+        <v>23.334900000000001</v>
       </c>
       <c r="Y100" s="75">
         <f t="shared" si="31"/>
-        <v>23.2822</v>
+        <v>23.288500000000003</v>
       </c>
       <c r="Z100" s="76" t="e">
         <f>VLOOKUP(A100,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10756,50 +10720,50 @@
     </row>
     <row r="101" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B101" s="61">
-        <v>4009</v>
+        <v>4037</v>
       </c>
       <c r="C101" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E101" s="30">
-        <v>42499.664861111109</v>
+        <v>42499.69259259259</v>
       </c>
       <c r="F101" s="30">
-        <v>42499.666064814817</v>
+        <v>42499.693530092591</v>
       </c>
       <c r="G101" s="38">
         <v>1</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="I101" s="30">
-        <v>42499.691365740742</v>
+        <v>42499.72115740741</v>
       </c>
       <c r="J101" s="61">
         <v>0</v>
       </c>
       <c r="K101" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4009/4010</v>
+        <v>4037/4038</v>
       </c>
       <c r="L101" s="61" t="str">
         <f>VLOOKUP(A101,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>ADANE</v>
+        <v>STRICKLAND</v>
       </c>
       <c r="M101" s="12">
         <f t="shared" si="25"/>
-        <v>2.5300925924966577E-2</v>
+        <v>2.7627314819255844E-2</v>
       </c>
       <c r="N101" s="13">
         <f t="shared" si="26"/>
-        <v>36.433333331951872</v>
+        <v>39.783333339728415</v>
       </c>
       <c r="O101" s="13"/>
       <c r="P101" s="13"/>
@@ -10807,7 +10771,7 @@
       <c r="R101" s="62"/>
       <c r="T101" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:56:24-0600',mode:absolute,to:'2016-05-09 16:36:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:36:20-0600',mode:absolute,to:'2016-05-09 17:19:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10819,15 +10783,15 @@
       </c>
       <c r="W101" s="75">
         <f t="shared" si="29"/>
-        <v>4.4600000000000001E-2</v>
+        <v>23.2989</v>
       </c>
       <c r="X101" s="75">
         <f t="shared" si="30"/>
-        <v>23.328600000000002</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Y101" s="75">
         <f t="shared" si="31"/>
-        <v>23.284000000000002</v>
+        <v>23.2822</v>
       </c>
       <c r="Z101" s="76" t="e">
         <f>VLOOKUP(A101,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10840,34 +10804,34 @@
     </row>
     <row r="102" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B102" s="61">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="C102" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="E102" s="30">
-        <v>42499.698275462964</v>
+        <v>42499.664861111109</v>
       </c>
       <c r="F102" s="30">
-        <v>42499.69908564815</v>
+        <v>42499.666064814817</v>
       </c>
       <c r="G102" s="38">
         <v>1</v>
       </c>
       <c r="H102" s="30" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="I102" s="30">
-        <v>42499.730879629627</v>
+        <v>42499.691365740742</v>
       </c>
       <c r="J102" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="61" t="str">
         <f t="shared" si="24"/>
@@ -10879,11 +10843,11 @@
       </c>
       <c r="M102" s="12">
         <f t="shared" si="25"/>
-        <v>3.1793981477676425E-2</v>
+        <v>2.5300925924966577E-2</v>
       </c>
       <c r="N102" s="13">
         <f t="shared" si="26"/>
-        <v>45.783333327854052</v>
+        <v>36.433333331951872</v>
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
@@ -10891,7 +10855,7 @@
       <c r="R102" s="62"/>
       <c r="T102" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:44:31-0600',mode:absolute,to:'2016-05-09 17:33:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 15:56:24-0600',mode:absolute,to:'2016-05-09 16:36:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10903,15 +10867,15 @@
       </c>
       <c r="W102" s="75">
         <f t="shared" si="29"/>
-        <v>23.297799999999999</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="X102" s="75">
         <f t="shared" si="30"/>
-        <v>1.4999999999999999E-2</v>
+        <v>23.328600000000002</v>
       </c>
       <c r="Y102" s="75">
         <f t="shared" si="31"/>
-        <v>23.282799999999998</v>
+        <v>23.284000000000002</v>
       </c>
       <c r="Z102" s="76" t="e">
         <f>VLOOKUP(A102,Enforcements!$C$3:$J$26,8,0)</f>
@@ -10924,50 +10888,50 @@
     </row>
     <row r="103" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B103" s="61">
-        <v>4027</v>
+        <v>4010</v>
       </c>
       <c r="C103" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E103" s="30">
-        <v>42499.673854166664</v>
+        <v>42499.698275462964</v>
       </c>
       <c r="F103" s="30">
-        <v>42499.674849537034</v>
+        <v>42499.69908564815</v>
       </c>
       <c r="G103" s="38">
         <v>1</v>
       </c>
       <c r="H103" s="30" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I103" s="30">
-        <v>42499.702662037038</v>
+        <v>42499.730879629627</v>
       </c>
       <c r="J103" s="61">
         <v>1</v>
       </c>
       <c r="K103" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4027/4028</v>
+        <v>4009/4010</v>
       </c>
       <c r="L103" s="61" t="str">
         <f>VLOOKUP(A103,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>WEBSTER</v>
+        <v>ADANE</v>
       </c>
       <c r="M103" s="12">
         <f t="shared" si="25"/>
-        <v>2.7812500004074536E-2</v>
+        <v>3.1793981477676425E-2</v>
       </c>
       <c r="N103" s="13">
         <f t="shared" si="26"/>
-        <v>40.050000005867332</v>
+        <v>45.783333327854052</v>
       </c>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
@@ -10975,7 +10939,7 @@
       <c r="R103" s="62"/>
       <c r="T103" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:09:21-0600',mode:absolute,to:'2016-05-09 16:52:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:44:31-0600',mode:absolute,to:'2016-05-09 17:33:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="75" t="str">
         <f t="shared" si="28"/>
@@ -10987,15 +10951,15 @@
       </c>
       <c r="W103" s="75">
         <f t="shared" si="29"/>
-        <v>4.5499999999999999E-2</v>
+        <v>23.297799999999999</v>
       </c>
       <c r="X103" s="75">
         <f t="shared" si="30"/>
-        <v>23.331199999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y103" s="75">
         <f t="shared" si="31"/>
-        <v>23.285699999999999</v>
+        <v>23.282799999999998</v>
       </c>
       <c r="Z103" s="76" t="e">
         <f>VLOOKUP(A103,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11008,34 +10972,34 @@
     </row>
     <row r="104" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B104" s="61">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="C104" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="E104" s="30">
-        <v>42499.713009259256</v>
+        <v>42499.673854166664</v>
       </c>
       <c r="F104" s="30">
-        <v>42499.714212962965</v>
+        <v>42499.674849537034</v>
       </c>
       <c r="G104" s="38">
         <v>1</v>
       </c>
       <c r="H104" s="30" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="I104" s="30">
-        <v>42499.743009259262</v>
+        <v>42499.702662037038</v>
       </c>
       <c r="J104" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="61" t="str">
         <f t="shared" si="24"/>
@@ -11047,11 +11011,11 @@
       </c>
       <c r="M104" s="12">
         <f t="shared" si="25"/>
-        <v>2.8796296297514345E-2</v>
+        <v>2.7812500004074536E-2</v>
       </c>
       <c r="N104" s="13">
         <f t="shared" si="26"/>
-        <v>41.466666668420658</v>
+        <v>40.050000005867332</v>
       </c>
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
@@ -11059,7 +11023,7 @@
       <c r="R104" s="62"/>
       <c r="T104" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:05:44-0600',mode:absolute,to:'2016-05-09 17:50:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:09:21-0600',mode:absolute,to:'2016-05-09 16:52:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11071,15 +11035,15 @@
       </c>
       <c r="W104" s="75">
         <f t="shared" si="29"/>
-        <v>23.300999999999998</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="X104" s="75">
         <f t="shared" si="30"/>
-        <v>1.54E-2</v>
+        <v>23.331199999999999</v>
       </c>
       <c r="Y104" s="75">
         <f t="shared" si="31"/>
-        <v>23.285599999999999</v>
+        <v>23.285699999999999</v>
       </c>
       <c r="Z104" s="76" t="e">
         <f>VLOOKUP(A104,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11092,50 +11056,50 @@
     </row>
     <row r="105" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B105" s="61">
-        <v>4025</v>
+        <v>4028</v>
       </c>
       <c r="C105" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="E105" s="30">
-        <v>42499.681458333333</v>
+        <v>42499.713009259256</v>
       </c>
       <c r="F105" s="30">
-        <v>42499.682546296295</v>
+        <v>42499.714212962965</v>
       </c>
       <c r="G105" s="38">
         <v>1</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="I105" s="30">
-        <v>42499.712256944447</v>
+        <v>42499.743009259262</v>
       </c>
       <c r="J105" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4025/4026</v>
+        <v>4027/4028</v>
       </c>
       <c r="L105" s="61" t="str">
         <f>VLOOKUP(A105,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>RIVERA</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M105" s="12">
         <f t="shared" si="25"/>
-        <v>2.9710648152104113E-2</v>
+        <v>2.8796296297514345E-2</v>
       </c>
       <c r="N105" s="13">
         <f t="shared" si="26"/>
-        <v>42.783333339029923</v>
+        <v>41.466666668420658</v>
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
@@ -11143,7 +11107,7 @@
       <c r="R105" s="62"/>
       <c r="T105" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:20:18-0600',mode:absolute,to:'2016-05-09 17:06:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:05:44-0600',mode:absolute,to:'2016-05-09 17:50:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11155,15 +11119,15 @@
       </c>
       <c r="W105" s="75">
         <f t="shared" si="29"/>
-        <v>4.3799999999999999E-2</v>
+        <v>23.300999999999998</v>
       </c>
       <c r="X105" s="75">
         <f t="shared" si="30"/>
-        <v>23.333200000000001</v>
+        <v>1.54E-2</v>
       </c>
       <c r="Y105" s="75">
         <f t="shared" si="31"/>
-        <v>23.289400000000001</v>
+        <v>23.285599999999999</v>
       </c>
       <c r="Z105" s="76" t="e">
         <f>VLOOKUP(A105,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11176,34 +11140,34 @@
     </row>
     <row r="106" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B106" s="61">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="C106" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="E106" s="30">
-        <v>42499.720717592594</v>
+        <v>42499.681458333333</v>
       </c>
       <c r="F106" s="30">
-        <v>42499.721944444442</v>
+        <v>42499.682546296295</v>
       </c>
       <c r="G106" s="38">
         <v>1</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="I106" s="30">
-        <v>42499.752222222225</v>
+        <v>42499.712256944447</v>
       </c>
       <c r="J106" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="61" t="str">
         <f t="shared" si="24"/>
@@ -11215,11 +11179,11 @@
       </c>
       <c r="M106" s="12">
         <f t="shared" si="25"/>
-        <v>3.0277777783339843E-2</v>
+        <v>2.9710648152104113E-2</v>
       </c>
       <c r="N106" s="13">
         <f t="shared" si="26"/>
-        <v>43.600000008009374</v>
+        <v>42.783333339029923</v>
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
@@ -11227,7 +11191,7 @@
       <c r="R106" s="62"/>
       <c r="T106" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:16:50-0600',mode:absolute,to:'2016-05-09 18:04:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:20:18-0600',mode:absolute,to:'2016-05-09 17:06:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11239,15 +11203,15 @@
       </c>
       <c r="W106" s="75">
         <f t="shared" si="29"/>
-        <v>23.301300000000001</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="X106" s="75">
         <f t="shared" si="30"/>
-        <v>1.4500000000000001E-2</v>
+        <v>23.333200000000001</v>
       </c>
       <c r="Y106" s="75">
         <f t="shared" si="31"/>
-        <v>23.286799999999999</v>
+        <v>23.289400000000001</v>
       </c>
       <c r="Z106" s="76" t="e">
         <f>VLOOKUP(A106,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11260,50 +11224,50 @@
     </row>
     <row r="107" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B107" s="61">
-        <v>4016</v>
+        <v>4026</v>
       </c>
       <c r="C107" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D107" s="61" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E107" s="30">
-        <v>42499.691006944442</v>
+        <v>42499.720717592594</v>
       </c>
       <c r="F107" s="30">
-        <v>42499.692106481481</v>
+        <v>42499.721944444442</v>
       </c>
       <c r="G107" s="38">
         <v>1</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I107" s="30">
-        <v>42499.724826388891</v>
+        <v>42499.752222222225</v>
       </c>
       <c r="J107" s="61">
         <v>0</v>
       </c>
       <c r="K107" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4015/4016</v>
+        <v>4025/4026</v>
       </c>
       <c r="L107" s="61" t="str">
         <f>VLOOKUP(A107,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>STORY</v>
+        <v>RIVERA</v>
       </c>
       <c r="M107" s="12">
         <f t="shared" si="25"/>
-        <v>3.2719907409045845E-2</v>
+        <v>3.0277777783339843E-2</v>
       </c>
       <c r="N107" s="13">
         <f t="shared" si="26"/>
-        <v>47.116666669026017</v>
+        <v>43.600000008009374</v>
       </c>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
@@ -11311,7 +11275,7 @@
       <c r="R107" s="62"/>
       <c r="T107" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:34:03-0600',mode:absolute,to:'2016-05-09 17:24:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:16:50-0600',mode:absolute,to:'2016-05-09 18:04:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11323,15 +11287,15 @@
       </c>
       <c r="W107" s="75">
         <f t="shared" si="29"/>
-        <v>4.6199999999999998E-2</v>
+        <v>23.301300000000001</v>
       </c>
       <c r="X107" s="75">
         <f t="shared" si="30"/>
-        <v>23.3306</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y107" s="75">
         <f t="shared" si="31"/>
-        <v>23.284400000000002</v>
+        <v>23.286799999999999</v>
       </c>
       <c r="Z107" s="76" t="e">
         <f>VLOOKUP(A107,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11344,31 +11308,31 @@
     </row>
     <row r="108" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B108" s="61">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="C108" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D108" s="61" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="E108" s="30">
-        <v>42499.730497685188</v>
+        <v>42499.691006944442</v>
       </c>
       <c r="F108" s="30">
-        <v>42499.731446759259</v>
+        <v>42499.692106481481</v>
       </c>
       <c r="G108" s="38">
         <v>1</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>363</v>
+        <v>96</v>
       </c>
       <c r="I108" s="30">
-        <v>42499.756284722222</v>
+        <v>42499.724826388891</v>
       </c>
       <c r="J108" s="61">
         <v>0</v>
@@ -11383,128 +11347,128 @@
       </c>
       <c r="M108" s="12">
         <f t="shared" si="25"/>
+        <v>3.2719907409045845E-2</v>
+      </c>
+      <c r="N108" s="13">
+        <f t="shared" si="26"/>
+        <v>47.116666669026017</v>
+      </c>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="62"/>
+      <c r="T108" s="75" t="str">
+        <f t="shared" si="27"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:34:03-0600',mode:absolute,to:'2016-05-09 17:24:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U108" s="75" t="str">
+        <f t="shared" si="28"/>
+        <v>N</v>
+      </c>
+      <c r="V108" s="75">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W108" s="75">
+        <f t="shared" si="29"/>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="X108" s="75">
+        <f t="shared" si="30"/>
+        <v>23.3306</v>
+      </c>
+      <c r="Y108" s="75">
+        <f t="shared" si="31"/>
+        <v>23.284400000000002</v>
+      </c>
+      <c r="Z108" s="76" t="e">
+        <f>VLOOKUP(A108,Enforcements!$C$3:$J$26,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA108" s="76" t="e">
+        <f>VLOOKUP(A108,Enforcements!$C$3:$J$26,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="61">
+        <v>4015</v>
+      </c>
+      <c r="C109" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" s="30">
+        <v>42499.730497685188</v>
+      </c>
+      <c r="F109" s="30">
+        <v>42499.731446759259</v>
+      </c>
+      <c r="G109" s="38">
+        <v>1</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="I109" s="30">
+        <v>42499.756284722222</v>
+      </c>
+      <c r="J109" s="61">
+        <v>0</v>
+      </c>
+      <c r="K109" s="61" t="str">
+        <f t="shared" si="24"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="L109" s="61" t="str">
+        <f>VLOOKUP(A109,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
+        <v>STORY</v>
+      </c>
+      <c r="M109" s="12">
+        <f t="shared" si="25"/>
         <v>2.4837962962919846E-2</v>
       </c>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13">
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13">
         <f t="shared" si="26"/>
         <v>35.766666666604578</v>
       </c>
-      <c r="Q108" s="62" t="s">
+      <c r="Q109" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="R108" s="62" t="s">
+      <c r="R109" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="T108" s="75" t="str">
+      <c r="T109" s="75" t="str">
         <f t="shared" si="27"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:30:55-0600',mode:absolute,to:'2016-05-09 18:10:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U108" s="75" t="str">
+      <c r="U109" s="75" t="str">
         <f t="shared" si="28"/>
         <v>Y</v>
       </c>
-      <c r="V108" s="75">
+      <c r="V109" s="75">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="W108" s="75">
+      <c r="W109" s="75">
         <f t="shared" si="29"/>
         <v>23.3004</v>
       </c>
-      <c r="X108" s="75">
+      <c r="X109" s="75">
         <f t="shared" si="30"/>
         <v>3.6781999999999999</v>
       </c>
-      <c r="Y108" s="75">
+      <c r="Y109" s="75">
         <f t="shared" si="31"/>
         <v>19.622199999999999</v>
       </c>
-      <c r="Z108" s="76" t="e">
-        <f>VLOOKUP(A108,Enforcements!$C$3:$J$26,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA108" s="76" t="e">
-        <f>VLOOKUP(A108,Enforcements!$C$3:$J$26,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="B109" s="61">
-        <v>4024</v>
-      </c>
-      <c r="C109" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D109" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="E109" s="30">
-        <v>42499.703518518516</v>
-      </c>
-      <c r="F109" s="30">
-        <v>42499.704953703702</v>
-      </c>
-      <c r="G109" s="38">
-        <v>2</v>
-      </c>
-      <c r="H109" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I109" s="30">
-        <v>42499.733483796299</v>
-      </c>
-      <c r="J109" s="61">
-        <v>0</v>
-      </c>
-      <c r="K109" s="61" t="str">
-        <f t="shared" si="24"/>
-        <v>4023/4024</v>
-      </c>
-      <c r="L109" s="61" t="str">
-        <f>VLOOKUP(A109,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>NELSON</v>
-      </c>
-      <c r="M109" s="12">
-        <f t="shared" si="25"/>
-        <v>2.8530092597065959E-2</v>
-      </c>
-      <c r="N109" s="13">
-        <f t="shared" si="26"/>
-        <v>41.083333339774981</v>
-      </c>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="62"/>
-      <c r="R109" s="62"/>
-      <c r="T109" s="75" t="str">
-        <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:52:04-0600',mode:absolute,to:'2016-05-09 17:37:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U109" s="75" t="str">
-        <f t="shared" si="28"/>
-        <v>N</v>
-      </c>
-      <c r="V109" s="75">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W109" s="75">
-        <f t="shared" si="29"/>
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="X109" s="75">
-        <f t="shared" si="30"/>
-        <v>23.329499999999999</v>
-      </c>
-      <c r="Y109" s="75">
-        <f t="shared" si="31"/>
-        <v>23.283799999999999</v>
-      </c>
       <c r="Z109" s="76" t="e">
         <f>VLOOKUP(A109,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
@@ -11516,31 +11480,31 @@
     </row>
     <row r="110" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B110" s="61">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C110" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D110" s="61" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="E110" s="30">
-        <v>42499.741249999999</v>
+        <v>42499.703518518516</v>
       </c>
       <c r="F110" s="30">
-        <v>42499.742106481484</v>
+        <v>42499.704953703702</v>
       </c>
       <c r="G110" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" s="30" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="I110" s="30">
-        <v>42499.773541666669</v>
+        <v>42499.733483796299</v>
       </c>
       <c r="J110" s="61">
         <v>0</v>
@@ -11555,11 +11519,11 @@
       </c>
       <c r="M110" s="12">
         <f t="shared" si="25"/>
-        <v>3.1435185184818693E-2</v>
+        <v>2.8530092597065959E-2</v>
       </c>
       <c r="N110" s="13">
         <f t="shared" si="26"/>
-        <v>45.266666666138917</v>
+        <v>41.083333339774981</v>
       </c>
       <c r="O110" s="13"/>
       <c r="P110" s="13"/>
@@ -11567,7 +11531,7 @@
       <c r="R110" s="62"/>
       <c r="T110" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:46:24-0600',mode:absolute,to:'2016-05-09 18:34:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 16:52:04-0600',mode:absolute,to:'2016-05-09 17:37:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11579,15 +11543,15 @@
       </c>
       <c r="W110" s="75">
         <f t="shared" si="29"/>
-        <v>23.2971</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="X110" s="75">
         <f t="shared" si="30"/>
-        <v>1.47E-2</v>
+        <v>23.329499999999999</v>
       </c>
       <c r="Y110" s="75">
         <f t="shared" si="31"/>
-        <v>23.282399999999999</v>
+        <v>23.283799999999999</v>
       </c>
       <c r="Z110" s="76" t="e">
         <f>VLOOKUP(A110,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11600,50 +11564,50 @@
     </row>
     <row r="111" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B111" s="61">
-        <v>4044</v>
+        <v>4023</v>
       </c>
       <c r="C111" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D111" s="61" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="E111" s="30">
-        <v>42499.715868055559</v>
+        <v>42499.741249999999</v>
       </c>
       <c r="F111" s="30">
-        <v>42499.717048611114</v>
+        <v>42499.742106481484</v>
       </c>
       <c r="G111" s="38">
         <v>1</v>
       </c>
       <c r="H111" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I111" s="30">
-        <v>42499.745196759257</v>
+        <v>42499.773541666669</v>
       </c>
       <c r="J111" s="61">
         <v>0</v>
       </c>
       <c r="K111" s="61" t="str">
         <f t="shared" si="24"/>
-        <v>4043/4044</v>
+        <v>4023/4024</v>
       </c>
       <c r="L111" s="61" t="str">
         <f>VLOOKUP(A111,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YOUNG</v>
+        <v>NELSON</v>
       </c>
       <c r="M111" s="12">
         <f t="shared" si="25"/>
-        <v>2.8148148143372964E-2</v>
+        <v>3.1435185184818693E-2</v>
       </c>
       <c r="N111" s="13">
         <f t="shared" si="26"/>
-        <v>40.533333326457068</v>
+        <v>45.266666666138917</v>
       </c>
       <c r="O111" s="13"/>
       <c r="P111" s="13"/>
@@ -11651,7 +11615,7 @@
       <c r="R111" s="62"/>
       <c r="T111" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:09:51-0600',mode:absolute,to:'2016-05-09 17:54:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:46:24-0600',mode:absolute,to:'2016-05-09 18:34:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11663,15 +11627,15 @@
       </c>
       <c r="W111" s="75">
         <f t="shared" si="29"/>
-        <v>4.6600000000000003E-2</v>
+        <v>23.2971</v>
       </c>
       <c r="X111" s="75">
         <f t="shared" si="30"/>
-        <v>23.33</v>
+        <v>1.47E-2</v>
       </c>
       <c r="Y111" s="75">
         <f t="shared" si="31"/>
-        <v>23.283399999999997</v>
+        <v>23.282399999999999</v>
       </c>
       <c r="Z111" s="76" t="e">
         <f>VLOOKUP(A111,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11684,31 +11648,31 @@
     </row>
     <row r="112" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B112" s="61">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C112" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="61" t="s">
-        <v>368</v>
+        <v>129</v>
       </c>
       <c r="E112" s="30">
-        <v>42499.750173611108</v>
+        <v>42499.715868055559</v>
       </c>
       <c r="F112" s="30">
-        <v>42499.751134259262</v>
+        <v>42499.717048611114</v>
       </c>
       <c r="G112" s="38">
         <v>1</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="I112" s="30">
-        <v>42499.785567129627</v>
+        <v>42499.745196759257</v>
       </c>
       <c r="J112" s="61">
         <v>0</v>
@@ -11723,11 +11687,11 @@
       </c>
       <c r="M112" s="12">
         <f t="shared" si="25"/>
-        <v>3.4432870364980772E-2</v>
+        <v>2.8148148143372964E-2</v>
       </c>
       <c r="N112" s="13">
         <f t="shared" si="26"/>
-        <v>49.583333325572312</v>
+        <v>40.533333326457068</v>
       </c>
       <c r="O112" s="13"/>
       <c r="P112" s="13"/>
@@ -11735,7 +11699,7 @@
       <c r="R112" s="62"/>
       <c r="T112" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:59:15-0600',mode:absolute,to:'2016-05-09 18:52:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:09:51-0600',mode:absolute,to:'2016-05-09 17:54:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11747,15 +11711,15 @@
       </c>
       <c r="W112" s="75">
         <f t="shared" si="29"/>
-        <v>23.2974</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="X112" s="75">
         <f t="shared" si="30"/>
-        <v>1.41E-2</v>
+        <v>23.33</v>
       </c>
       <c r="Y112" s="75">
         <f t="shared" si="31"/>
-        <v>23.283300000000001</v>
+        <v>23.283399999999997</v>
       </c>
       <c r="Z112" s="76" t="e">
         <f>VLOOKUP(A112,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11768,50 +11732,50 @@
     </row>
     <row r="113" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B113" s="61">
-        <v>4038</v>
+        <v>4043</v>
       </c>
       <c r="C113" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D113" s="61" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="E113" s="30">
-        <v>42499.726655092592</v>
+        <v>42499.750173611108</v>
       </c>
       <c r="F113" s="30">
-        <v>42499.727673611109</v>
+        <v>42499.751134259262</v>
       </c>
       <c r="G113" s="38">
         <v>1</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="I113" s="30">
-        <v>42499.753703703704</v>
+        <v>42499.785567129627</v>
       </c>
       <c r="J113" s="61">
         <v>0</v>
       </c>
       <c r="K113" s="61" t="str">
-        <f t="shared" ref="K113:K116" si="32">IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
-        <v>4037/4038</v>
+        <f t="shared" si="24"/>
+        <v>4043/4044</v>
       </c>
       <c r="L113" s="61" t="str">
         <f>VLOOKUP(A113,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>STRICKLAND</v>
+        <v>YOUNG</v>
       </c>
       <c r="M113" s="12">
-        <f t="shared" ref="M113:M116" si="33">I113-F113</f>
-        <v>2.6030092594737653E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.4432870364980772E-2</v>
       </c>
       <c r="N113" s="13">
         <f t="shared" si="26"/>
-        <v>37.48333333642222</v>
+        <v>49.583333325572312</v>
       </c>
       <c r="O113" s="13"/>
       <c r="P113" s="13"/>
@@ -11819,7 +11783,7 @@
       <c r="R113" s="62"/>
       <c r="T113" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:25:23-0600',mode:absolute,to:'2016-05-09 18:06:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:59:15-0600',mode:absolute,to:'2016-05-09 18:52:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11831,15 +11795,15 @@
       </c>
       <c r="W113" s="75">
         <f t="shared" si="29"/>
-        <v>4.53E-2</v>
+        <v>23.2974</v>
       </c>
       <c r="X113" s="75">
         <f t="shared" si="30"/>
-        <v>23.329499999999999</v>
+        <v>1.41E-2</v>
       </c>
       <c r="Y113" s="75">
         <f t="shared" si="31"/>
-        <v>23.284199999999998</v>
+        <v>23.283300000000001</v>
       </c>
       <c r="Z113" s="76" t="e">
         <f>VLOOKUP(A113,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11852,37 +11816,37 @@
     </row>
     <row r="114" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B114" s="61">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="C114" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D114" s="61" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="E114" s="30">
-        <v>42499.765532407408</v>
+        <v>42499.726655092592</v>
       </c>
       <c r="F114" s="30">
-        <v>42499.766759259262</v>
+        <v>42499.727673611109</v>
       </c>
       <c r="G114" s="38">
         <v>1</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="I114" s="30">
-        <v>42499.793298611112</v>
+        <v>42499.753703703704</v>
       </c>
       <c r="J114" s="61">
         <v>0</v>
       </c>
       <c r="K114" s="61" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="K114:K117" si="32">IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L114" s="61" t="str">
@@ -11890,12 +11854,12 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" si="33"/>
-        <v>2.6539351849351078E-2</v>
+        <f t="shared" ref="M114:M117" si="33">I114-F114</f>
+        <v>2.6030092594737653E-2</v>
       </c>
       <c r="N114" s="13">
         <f t="shared" si="26"/>
-        <v>38.216666663065553</v>
+        <v>37.48333333642222</v>
       </c>
       <c r="O114" s="13"/>
       <c r="P114" s="13"/>
@@ -11903,7 +11867,7 @@
       <c r="R114" s="62"/>
       <c r="T114" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:21:22-0600',mode:absolute,to:'2016-05-09 19:03:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:25:23-0600',mode:absolute,to:'2016-05-09 18:06:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11915,15 +11879,15 @@
       </c>
       <c r="W114" s="75">
         <f t="shared" si="29"/>
-        <v>23.296299999999999</v>
+        <v>4.53E-2</v>
       </c>
       <c r="X114" s="75">
         <f t="shared" si="30"/>
-        <v>0.16320000000000001</v>
+        <v>23.329499999999999</v>
       </c>
       <c r="Y114" s="75">
         <f t="shared" si="31"/>
-        <v>23.133099999999999</v>
+        <v>23.284199999999998</v>
       </c>
       <c r="Z114" s="76" t="e">
         <f>VLOOKUP(A114,Enforcements!$C$3:$J$26,8,0)</f>
@@ -11936,50 +11900,50 @@
     </row>
     <row r="115" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B115" s="61">
-        <v>4009</v>
+        <v>4037</v>
       </c>
       <c r="C115" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D115" s="61" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="E115" s="30">
-        <v>42499.734618055554</v>
+        <v>42499.765532407408</v>
       </c>
       <c r="F115" s="30">
-        <v>42499.735775462963</v>
+        <v>42499.766759259262</v>
       </c>
       <c r="G115" s="38">
         <v>1</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="I115" s="30">
-        <v>42499.765231481484</v>
+        <v>42499.793298611112</v>
       </c>
       <c r="J115" s="61">
         <v>0</v>
       </c>
       <c r="K115" s="61" t="str">
         <f t="shared" si="32"/>
-        <v>4009/4010</v>
+        <v>4037/4038</v>
       </c>
       <c r="L115" s="61" t="str">
         <f>VLOOKUP(A115,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>JACKSON</v>
+        <v>STRICKLAND</v>
       </c>
       <c r="M115" s="12">
         <f t="shared" si="33"/>
-        <v>2.9456018521159422E-2</v>
+        <v>2.6539351849351078E-2</v>
       </c>
       <c r="N115" s="13">
         <f t="shared" si="26"/>
-        <v>42.416666670469567</v>
+        <v>38.216666663065553</v>
       </c>
       <c r="O115" s="13"/>
       <c r="P115" s="13"/>
@@ -11987,7 +11951,7 @@
       <c r="R115" s="62"/>
       <c r="T115" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:36:51-0600',mode:absolute,to:'2016-05-09 18:22:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:21:22-0600',mode:absolute,to:'2016-05-09 19:03:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="75" t="str">
         <f t="shared" si="28"/>
@@ -11999,15 +11963,15 @@
       </c>
       <c r="W115" s="75">
         <f t="shared" si="29"/>
-        <v>4.4699999999999997E-2</v>
+        <v>23.296299999999999</v>
       </c>
       <c r="X115" s="75">
         <f t="shared" si="30"/>
-        <v>23.3291</v>
+        <v>0.16320000000000001</v>
       </c>
       <c r="Y115" s="75">
         <f t="shared" si="31"/>
-        <v>23.284400000000002</v>
+        <v>23.133099999999999</v>
       </c>
       <c r="Z115" s="76" t="e">
         <f>VLOOKUP(A115,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12020,31 +11984,31 @@
     </row>
     <row r="116" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B116" s="61">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="C116" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D116" s="61" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E116" s="30">
-        <v>42499.7734837963</v>
+        <v>42499.734618055554</v>
       </c>
       <c r="F116" s="30">
-        <v>42499.77484953704</v>
+        <v>42499.735775462963</v>
       </c>
       <c r="G116" s="38">
         <v>1</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I116" s="30">
-        <v>42499.804895833331</v>
+        <v>42499.765231481484</v>
       </c>
       <c r="J116" s="61">
         <v>0</v>
@@ -12059,11 +12023,11 @@
       </c>
       <c r="M116" s="12">
         <f t="shared" si="33"/>
-        <v>3.0046296291402541E-2</v>
+        <v>2.9456018521159422E-2</v>
       </c>
       <c r="N116" s="13">
         <f t="shared" si="26"/>
-        <v>43.266666659619659</v>
+        <v>42.416666670469567</v>
       </c>
       <c r="O116" s="13"/>
       <c r="P116" s="13"/>
@@ -12071,7 +12035,7 @@
       <c r="R116" s="62"/>
       <c r="T116" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:32:49-0600',mode:absolute,to:'2016-05-09 19:20:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:36:51-0600',mode:absolute,to:'2016-05-09 18:22:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12083,15 +12047,15 @@
       </c>
       <c r="W116" s="75">
         <f t="shared" si="29"/>
-        <v>23.298500000000001</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="X116" s="75">
         <f t="shared" si="30"/>
-        <v>1.4999999999999999E-2</v>
+        <v>23.3291</v>
       </c>
       <c r="Y116" s="75">
         <f t="shared" si="31"/>
-        <v>23.2835</v>
+        <v>23.284400000000002</v>
       </c>
       <c r="Z116" s="76" t="e">
         <f>VLOOKUP(A116,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12104,50 +12068,50 @@
     </row>
     <row r="117" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B117" s="61">
-        <v>4027</v>
+        <v>4010</v>
       </c>
       <c r="C117" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="E117" s="30">
-        <v>42499.744571759256</v>
+        <v>42499.7734837963</v>
       </c>
       <c r="F117" s="30">
-        <v>42499.745983796296</v>
+        <v>42499.77484953704</v>
       </c>
       <c r="G117" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I117" s="30">
-        <v>42499.774548611109</v>
+        <v>42499.804895833331</v>
       </c>
       <c r="J117" s="61">
         <v>0</v>
       </c>
       <c r="K117" s="61" t="str">
-        <f t="shared" ref="K117:K147" si="34">IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
-        <v>4027/4028</v>
+        <f t="shared" si="32"/>
+        <v>4009/4010</v>
       </c>
       <c r="L117" s="61" t="str">
         <f>VLOOKUP(A117,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>WEBSTER</v>
+        <v>JACKSON</v>
       </c>
       <c r="M117" s="12">
-        <f t="shared" ref="M117:M147" si="35">I117-F117</f>
-        <v>2.8564814812853001E-2</v>
+        <f t="shared" si="33"/>
+        <v>3.0046296291402541E-2</v>
       </c>
       <c r="N117" s="13">
         <f t="shared" si="26"/>
-        <v>41.133333330508322</v>
+        <v>43.266666659619659</v>
       </c>
       <c r="O117" s="13"/>
       <c r="P117" s="13"/>
@@ -12155,7 +12119,7 @@
       <c r="R117" s="62"/>
       <c r="T117" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:51:11-0600',mode:absolute,to:'2016-05-09 18:36:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:32:49-0600',mode:absolute,to:'2016-05-09 19:20:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12167,15 +12131,15 @@
       </c>
       <c r="W117" s="75">
         <f t="shared" si="29"/>
-        <v>4.3799999999999999E-2</v>
+        <v>23.298500000000001</v>
       </c>
       <c r="X117" s="75">
         <f t="shared" si="30"/>
-        <v>23.329899999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y117" s="75">
         <f t="shared" si="31"/>
-        <v>23.286099999999998</v>
+        <v>23.2835</v>
       </c>
       <c r="Z117" s="76" t="e">
         <f>VLOOKUP(A117,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12188,37 +12152,37 @@
     </row>
     <row r="118" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B118" s="61">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="C118" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D118" s="61" t="s">
-        <v>85</v>
+        <v>359</v>
       </c>
       <c r="E118" s="30">
-        <v>42499.78434027778</v>
+        <v>42499.744571759256</v>
       </c>
       <c r="F118" s="30">
-        <v>42499.785162037035</v>
+        <v>42499.745983796296</v>
       </c>
       <c r="G118" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="I118" s="30">
-        <v>42499.815243055556</v>
+        <v>42499.774548611109</v>
       </c>
       <c r="J118" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="K118:K148" si="34">IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
         <v>4027/4028</v>
       </c>
       <c r="L118" s="61" t="str">
@@ -12226,12 +12190,12 @@
         <v>WEBSTER</v>
       </c>
       <c r="M118" s="12">
-        <f t="shared" si="35"/>
-        <v>3.0081018521741498E-2</v>
+        <f t="shared" ref="M118:M148" si="35">I118-F118</f>
+        <v>2.8564814812853001E-2</v>
       </c>
       <c r="N118" s="13">
         <f t="shared" si="26"/>
-        <v>43.316666671307757</v>
+        <v>41.133333330508322</v>
       </c>
       <c r="O118" s="13"/>
       <c r="P118" s="13"/>
@@ -12239,7 +12203,7 @@
       <c r="R118" s="62"/>
       <c r="T118" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:48:27-0600',mode:absolute,to:'2016-05-09 19:34:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 17:51:11-0600',mode:absolute,to:'2016-05-09 18:36:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12251,15 +12215,15 @@
       </c>
       <c r="W118" s="75">
         <f t="shared" si="29"/>
-        <v>23.297699999999999</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="X118" s="75">
         <f t="shared" si="30"/>
-        <v>1.34E-2</v>
+        <v>23.329899999999999</v>
       </c>
       <c r="Y118" s="75">
         <f t="shared" si="31"/>
-        <v>23.284299999999998</v>
+        <v>23.286099999999998</v>
       </c>
       <c r="Z118" s="76" t="e">
         <f>VLOOKUP(A118,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12272,50 +12236,50 @@
     </row>
     <row r="119" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B119" s="61">
-        <v>4025</v>
+        <v>4028</v>
       </c>
       <c r="C119" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D119" s="61" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E119" s="30">
-        <v>42499.755902777775</v>
+        <v>42499.78434027778</v>
       </c>
       <c r="F119" s="30">
-        <v>42499.757013888891</v>
+        <v>42499.785162037035</v>
       </c>
       <c r="G119" s="38">
         <v>1</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="I119" s="30">
-        <v>42499.78597222222</v>
+        <v>42499.815243055556</v>
       </c>
       <c r="J119" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4025/4026</v>
+        <v>4027/4028</v>
       </c>
       <c r="L119" s="61" t="str">
         <f>VLOOKUP(A119,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M119" s="12">
         <f t="shared" si="35"/>
-        <v>2.8958333328773733E-2</v>
+        <v>3.0081018521741498E-2</v>
       </c>
       <c r="N119" s="13">
         <f t="shared" si="26"/>
-        <v>41.699999993434176</v>
+        <v>43.316666671307757</v>
       </c>
       <c r="O119" s="13"/>
       <c r="P119" s="13"/>
@@ -12323,7 +12287,7 @@
       <c r="R119" s="62"/>
       <c r="T119" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:07:30-0600',mode:absolute,to:'2016-05-09 18:52:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:48:27-0600',mode:absolute,to:'2016-05-09 19:34:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12335,15 +12299,15 @@
       </c>
       <c r="W119" s="75">
         <f t="shared" si="29"/>
-        <v>4.53E-2</v>
+        <v>23.297699999999999</v>
       </c>
       <c r="X119" s="75">
         <f t="shared" si="30"/>
-        <v>23.331199999999999</v>
+        <v>1.34E-2</v>
       </c>
       <c r="Y119" s="75">
         <f t="shared" si="31"/>
-        <v>23.285899999999998</v>
+        <v>23.284299999999998</v>
       </c>
       <c r="Z119" s="76" t="e">
         <f>VLOOKUP(A119,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12356,31 +12320,31 @@
     </row>
     <row r="120" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B120" s="61">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="C120" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D120" s="61" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E120" s="30">
-        <v>42499.790648148148</v>
+        <v>42499.755902777775</v>
       </c>
       <c r="F120" s="30">
-        <v>42499.793263888889</v>
+        <v>42499.757013888891</v>
       </c>
       <c r="G120" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="I120" s="30">
-        <v>42499.825509259259</v>
+        <v>42499.78597222222</v>
       </c>
       <c r="J120" s="61">
         <v>0</v>
@@ -12395,11 +12359,11 @@
       </c>
       <c r="M120" s="12">
         <f t="shared" si="35"/>
-        <v>3.2245370370219462E-2</v>
+        <v>2.8958333328773733E-2</v>
       </c>
       <c r="N120" s="13">
         <f t="shared" si="26"/>
-        <v>46.433333333116025</v>
+        <v>41.699999993434176</v>
       </c>
       <c r="O120" s="13"/>
       <c r="P120" s="13"/>
@@ -12407,7 +12371,7 @@
       <c r="R120" s="62"/>
       <c r="T120" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:57:32-0600',mode:absolute,to:'2016-05-09 19:49:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:07:30-0600',mode:absolute,to:'2016-05-09 18:52:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12419,15 +12383,15 @@
       </c>
       <c r="W120" s="75">
         <f t="shared" si="29"/>
-        <v>23.298300000000001</v>
+        <v>4.53E-2</v>
       </c>
       <c r="X120" s="75">
         <f t="shared" si="30"/>
-        <v>1.4999999999999999E-2</v>
+        <v>23.331199999999999</v>
       </c>
       <c r="Y120" s="75">
         <f t="shared" si="31"/>
-        <v>23.283300000000001</v>
+        <v>23.285899999999998</v>
       </c>
       <c r="Z120" s="76" t="e">
         <f>VLOOKUP(A120,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12440,50 +12404,50 @@
     </row>
     <row r="121" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B121" s="61">
-        <v>4018</v>
+        <v>4026</v>
       </c>
       <c r="C121" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E121" s="30">
-        <v>42499.767743055556</v>
+        <v>42499.790648148148</v>
       </c>
       <c r="F121" s="30">
-        <v>42499.768935185188</v>
+        <v>42499.793263888889</v>
       </c>
       <c r="G121" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="I121" s="30">
-        <v>42499.795914351853</v>
+        <v>42499.825509259259</v>
       </c>
       <c r="J121" s="61">
         <v>0</v>
       </c>
       <c r="K121" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4017/4018</v>
+        <v>4025/4026</v>
       </c>
       <c r="L121" s="61" t="str">
         <f>VLOOKUP(A121,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>BRUDER</v>
       </c>
       <c r="M121" s="12">
         <f t="shared" si="35"/>
-        <v>2.6979166665114462E-2</v>
+        <v>3.2245370370219462E-2</v>
       </c>
       <c r="N121" s="13">
         <f t="shared" si="26"/>
-        <v>38.849999997764826</v>
+        <v>46.433333333116025</v>
       </c>
       <c r="O121" s="13"/>
       <c r="P121" s="13"/>
@@ -12491,7 +12455,7 @@
       <c r="R121" s="62"/>
       <c r="T121" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:24:33-0600',mode:absolute,to:'2016-05-09 19:07:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:57:32-0600',mode:absolute,to:'2016-05-09 19:49:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12503,15 +12467,15 @@
       </c>
       <c r="W121" s="75">
         <f t="shared" si="29"/>
-        <v>4.3700000000000003E-2</v>
+        <v>23.298300000000001</v>
       </c>
       <c r="X121" s="75">
         <f t="shared" si="30"/>
-        <v>23.330500000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y121" s="75">
         <f t="shared" si="31"/>
-        <v>23.286799999999999</v>
+        <v>23.283300000000001</v>
       </c>
       <c r="Z121" s="76" t="e">
         <f>VLOOKUP(A121,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12524,31 +12488,31 @@
     </row>
     <row r="122" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B122" s="61">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C122" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E122" s="30">
-        <v>42499.798541666663</v>
+        <v>42499.767743055556</v>
       </c>
       <c r="F122" s="30">
-        <v>42499.799675925926</v>
+        <v>42499.768935185188</v>
       </c>
       <c r="G122" s="38">
         <v>1</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="I122" s="30">
-        <v>42499.836030092592</v>
+        <v>42499.795914351853</v>
       </c>
       <c r="J122" s="61">
         <v>0</v>
@@ -12563,11 +12527,11 @@
       </c>
       <c r="M122" s="12">
         <f t="shared" si="35"/>
-        <v>3.6354166666569654E-2</v>
+        <v>2.6979166665114462E-2</v>
       </c>
       <c r="N122" s="13">
         <f t="shared" si="26"/>
-        <v>52.349999999860302</v>
+        <v>38.849999997764826</v>
       </c>
       <c r="O122" s="13"/>
       <c r="P122" s="13"/>
@@ -12575,7 +12539,7 @@
       <c r="R122" s="62"/>
       <c r="T122" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 19:08:54-0600',mode:absolute,to:'2016-05-09 20:04:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:24:33-0600',mode:absolute,to:'2016-05-09 19:07:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12587,15 +12551,15 @@
       </c>
       <c r="W122" s="75">
         <f t="shared" si="29"/>
-        <v>23.297499999999999</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="X122" s="75">
         <f t="shared" si="30"/>
-        <v>1.72E-2</v>
+        <v>23.330500000000001</v>
       </c>
       <c r="Y122" s="75">
         <f t="shared" si="31"/>
-        <v>23.2803</v>
+        <v>23.286799999999999</v>
       </c>
       <c r="Z122" s="76" t="e">
         <f>VLOOKUP(A122,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12608,66 +12572,62 @@
     </row>
     <row r="123" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B123" s="61">
-        <v>4044</v>
+        <v>4017</v>
       </c>
       <c r="C123" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E123" s="30">
-        <v>42499.787997685184</v>
+        <v>42499.798541666663</v>
       </c>
       <c r="F123" s="30">
-        <v>42499.788726851853</v>
+        <v>42499.799675925926</v>
       </c>
       <c r="G123" s="38">
         <v>1</v>
       </c>
       <c r="H123" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I123" s="30">
-        <v>42499.820601851854</v>
+        <v>42499.836030092592</v>
       </c>
       <c r="J123" s="61">
         <v>0</v>
       </c>
       <c r="K123" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4043/4044</v>
+        <v>4017/4018</v>
       </c>
       <c r="L123" s="61" t="str">
         <f>VLOOKUP(A123,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YOUNG</v>
+        <v>BARTLETT</v>
       </c>
       <c r="M123" s="12">
         <f t="shared" si="35"/>
-        <v>3.1875000000582077E-2</v>
-      </c>
-      <c r="N123" s="13"/>
+        <v>3.6354166666569654E-2</v>
+      </c>
+      <c r="N123" s="13">
+        <f t="shared" si="26"/>
+        <v>52.349999999860302</v>
+      </c>
       <c r="O123" s="13"/>
-      <c r="P123" s="13">
-        <f t="shared" si="26"/>
-        <v>45.90000000083819</v>
-      </c>
-      <c r="Q123" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="R123" s="62" t="s">
-        <v>475</v>
-      </c>
+      <c r="P123" s="13"/>
+      <c r="Q123" s="62"/>
+      <c r="R123" s="62"/>
       <c r="T123" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:53:43-0600',mode:absolute,to:'2016-05-09 19:42:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 19:08:54-0600',mode:absolute,to:'2016-05-09 20:04:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="75" t="str">
         <f t="shared" si="28"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="V123" s="75">
         <f t="shared" si="23"/>
@@ -12675,15 +12635,15 @@
       </c>
       <c r="W123" s="75">
         <f t="shared" si="29"/>
-        <v>4.8000000000000001E-2</v>
+        <v>23.297499999999999</v>
       </c>
       <c r="X123" s="75">
         <f t="shared" si="30"/>
-        <v>22.1388</v>
+        <v>1.72E-2</v>
       </c>
       <c r="Y123" s="75">
         <f t="shared" si="31"/>
-        <v>22.090800000000002</v>
+        <v>23.2803</v>
       </c>
       <c r="Z123" s="76" t="e">
         <f>VLOOKUP(A123,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12696,34 +12656,34 @@
     </row>
     <row r="124" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B124" s="61">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C124" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>384</v>
+        <v>176</v>
       </c>
       <c r="E124" s="30">
-        <v>42499.826481481483</v>
+        <v>42499.787997685184</v>
       </c>
       <c r="F124" s="30">
-        <v>42499.827592592592</v>
+        <v>42499.788726851853</v>
       </c>
       <c r="G124" s="38">
         <v>1</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I124" s="30">
-        <v>42499.859629629631</v>
+        <v>42499.820601851854</v>
       </c>
       <c r="J124" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="61" t="str">
         <f t="shared" si="34"/>
@@ -12735,95 +12695,99 @@
       </c>
       <c r="M124" s="12">
         <f t="shared" si="35"/>
+        <v>3.1875000000582077E-2</v>
+      </c>
+      <c r="N124" s="13"/>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13">
+        <f t="shared" si="26"/>
+        <v>45.90000000083819</v>
+      </c>
+      <c r="Q124" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="R124" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="T124" s="75" t="str">
+        <f t="shared" si="27"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 18:53:43-0600',mode:absolute,to:'2016-05-09 19:42:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U124" s="75" t="str">
+        <f t="shared" si="28"/>
+        <v>Y</v>
+      </c>
+      <c r="V124" s="75">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W124" s="75">
+        <f t="shared" si="29"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="X124" s="75">
+        <f t="shared" si="30"/>
+        <v>22.1388</v>
+      </c>
+      <c r="Y124" s="75">
+        <f t="shared" si="31"/>
+        <v>22.090800000000002</v>
+      </c>
+      <c r="Z124" s="76" t="e">
+        <f>VLOOKUP(A124,Enforcements!$C$3:$J$26,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA124" s="76" t="e">
+        <f>VLOOKUP(A124,Enforcements!$C$3:$J$26,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B125" s="61">
+        <v>4043</v>
+      </c>
+      <c r="C125" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D125" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E125" s="30">
+        <v>42499.826481481483</v>
+      </c>
+      <c r="F125" s="30">
+        <v>42499.827592592592</v>
+      </c>
+      <c r="G125" s="38">
+        <v>1</v>
+      </c>
+      <c r="H125" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="I125" s="30">
+        <v>42499.859629629631</v>
+      </c>
+      <c r="J125" s="61">
+        <v>1</v>
+      </c>
+      <c r="K125" s="61" t="str">
+        <f t="shared" si="34"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="L125" s="61" t="str">
+        <f>VLOOKUP(A125,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
+        <v>YOUNG</v>
+      </c>
+      <c r="M125" s="12">
+        <f t="shared" si="35"/>
         <v>3.2037037039117422E-2</v>
       </c>
-      <c r="N124" s="13">
+      <c r="N125" s="13">
         <f t="shared" si="26"/>
         <v>46.133333336329088</v>
-      </c>
-      <c r="O124" s="13"/>
-      <c r="P124" s="13"/>
-      <c r="Q124" s="62"/>
-      <c r="R124" s="62"/>
-      <c r="T124" s="75" t="str">
-        <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 19:49:08-0600',mode:absolute,to:'2016-05-09 20:38:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U124" s="75" t="str">
-        <f t="shared" si="28"/>
-        <v>N</v>
-      </c>
-      <c r="V124" s="75">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W124" s="75">
-        <f t="shared" si="29"/>
-        <v>23.2973</v>
-      </c>
-      <c r="X124" s="75">
-        <f t="shared" si="30"/>
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="Y124" s="75">
-        <f t="shared" si="31"/>
-        <v>23.202999999999999</v>
-      </c>
-      <c r="Z124" s="76" t="e">
-        <f>VLOOKUP(A124,Enforcements!$C$3:$J$26,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA124" s="76" t="e">
-        <f>VLOOKUP(A124,Enforcements!$C$3:$J$26,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="B125" s="61">
-        <v>4009</v>
-      </c>
-      <c r="C125" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D125" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="E125" s="30">
-        <v>42499.806956018518</v>
-      </c>
-      <c r="F125" s="30">
-        <v>42499.808055555557</v>
-      </c>
-      <c r="G125" s="38">
-        <v>1</v>
-      </c>
-      <c r="H125" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I125" s="30">
-        <v>42499.837442129632</v>
-      </c>
-      <c r="J125" s="61">
-        <v>0</v>
-      </c>
-      <c r="K125" s="61" t="str">
-        <f t="shared" si="34"/>
-        <v>4009/4010</v>
-      </c>
-      <c r="L125" s="61" t="str">
-        <f>VLOOKUP(A125,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>JACKSON</v>
-      </c>
-      <c r="M125" s="12">
-        <f t="shared" si="35"/>
-        <v>2.9386574075033423E-2</v>
-      </c>
-      <c r="N125" s="13">
-        <f t="shared" si="26"/>
-        <v>42.316666668048128</v>
       </c>
       <c r="O125" s="13"/>
       <c r="P125" s="13"/>
@@ -12831,7 +12795,7 @@
       <c r="R125" s="62"/>
       <c r="T125" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 19:21:01-0600',mode:absolute,to:'2016-05-09 20:06:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 19:49:08-0600',mode:absolute,to:'2016-05-09 20:38:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12843,15 +12807,15 @@
       </c>
       <c r="W125" s="75">
         <f t="shared" si="29"/>
-        <v>4.5100000000000001E-2</v>
+        <v>23.2973</v>
       </c>
       <c r="X125" s="75">
         <f t="shared" si="30"/>
-        <v>23.329499999999999</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="Y125" s="75">
         <f t="shared" si="31"/>
-        <v>23.284399999999998</v>
+        <v>23.202999999999999</v>
       </c>
       <c r="Z125" s="76" t="e">
         <f>VLOOKUP(A125,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12864,31 +12828,31 @@
     </row>
     <row r="126" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B126" s="61">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="C126" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="E126" s="30">
-        <v>42499.845590277779</v>
+        <v>42499.806956018518</v>
       </c>
       <c r="F126" s="30">
-        <v>42499.846493055556</v>
+        <v>42499.808055555557</v>
       </c>
       <c r="G126" s="38">
         <v>1</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I126" s="30">
-        <v>42499.878391203703</v>
+        <v>42499.837442129632</v>
       </c>
       <c r="J126" s="61">
         <v>0</v>
@@ -12903,11 +12867,11 @@
       </c>
       <c r="M126" s="12">
         <f t="shared" si="35"/>
-        <v>3.1898148146865424E-2</v>
+        <v>2.9386574075033423E-2</v>
       </c>
       <c r="N126" s="13">
         <f t="shared" si="26"/>
-        <v>45.93333333148621</v>
+        <v>42.316666668048128</v>
       </c>
       <c r="O126" s="13"/>
       <c r="P126" s="13"/>
@@ -12915,7 +12879,7 @@
       <c r="R126" s="62"/>
       <c r="T126" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 20:16:39-0600',mode:absolute,to:'2016-05-09 21:05:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 19:21:01-0600',mode:absolute,to:'2016-05-09 20:06:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="75" t="str">
         <f t="shared" si="28"/>
@@ -12927,15 +12891,15 @@
       </c>
       <c r="W126" s="75">
         <f t="shared" si="29"/>
-        <v>23.297000000000001</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="X126" s="75">
         <f t="shared" si="30"/>
-        <v>1.5599999999999999E-2</v>
+        <v>23.329499999999999</v>
       </c>
       <c r="Y126" s="75">
         <f t="shared" si="31"/>
-        <v>23.281400000000001</v>
+        <v>23.284399999999998</v>
       </c>
       <c r="Z126" s="76" t="e">
         <f>VLOOKUP(A126,Enforcements!$C$3:$J$26,8,0)</f>
@@ -12948,50 +12912,50 @@
     </row>
     <row r="127" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B127" s="61">
-        <v>4025</v>
+        <v>4010</v>
       </c>
       <c r="C127" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="E127" s="30">
-        <v>42499.827870370369</v>
+        <v>42499.845590277779</v>
       </c>
       <c r="F127" s="30">
-        <v>42499.829039351855</v>
+        <v>42499.846493055556</v>
       </c>
       <c r="G127" s="38">
         <v>1</v>
       </c>
       <c r="H127" s="30" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="I127" s="30">
-        <v>42499.858043981483</v>
+        <v>42499.878391203703</v>
       </c>
       <c r="J127" s="61">
         <v>0</v>
       </c>
       <c r="K127" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4025/4026</v>
+        <v>4009/4010</v>
       </c>
       <c r="L127" s="61" t="str">
         <f>VLOOKUP(A127,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>JACKSON</v>
       </c>
       <c r="M127" s="12">
         <f t="shared" si="35"/>
-        <v>2.9004629628616385E-2</v>
+        <v>3.1898148146865424E-2</v>
       </c>
       <c r="N127" s="13">
         <f t="shared" si="26"/>
-        <v>41.766666665207595</v>
+        <v>45.93333333148621</v>
       </c>
       <c r="O127" s="13"/>
       <c r="P127" s="13"/>
@@ -12999,7 +12963,7 @@
       <c r="R127" s="62"/>
       <c r="T127" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 19:51:08-0600',mode:absolute,to:'2016-05-09 20:36:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 20:16:39-0600',mode:absolute,to:'2016-05-09 21:05:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="75" t="str">
         <f t="shared" si="28"/>
@@ -13011,15 +12975,15 @@
       </c>
       <c r="W127" s="75">
         <f t="shared" si="29"/>
-        <v>4.4900000000000002E-2</v>
+        <v>23.297000000000001</v>
       </c>
       <c r="X127" s="75">
         <f t="shared" si="30"/>
-        <v>23.332899999999999</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y127" s="75">
         <f t="shared" si="31"/>
-        <v>23.288</v>
+        <v>23.281400000000001</v>
       </c>
       <c r="Z127" s="76" t="e">
         <f>VLOOKUP(A127,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13032,31 +12996,31 @@
     </row>
     <row r="128" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B128" s="61">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="C128" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>390</v>
+        <v>98</v>
       </c>
       <c r="E128" s="30">
-        <v>42499.863645833335</v>
+        <v>42499.827870370369</v>
       </c>
       <c r="F128" s="30">
-        <v>42499.864687499998</v>
+        <v>42499.829039351855</v>
       </c>
       <c r="G128" s="38">
         <v>1</v>
       </c>
       <c r="H128" s="30" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I128" s="30">
-        <v>42499.897777777776</v>
+        <v>42499.858043981483</v>
       </c>
       <c r="J128" s="61">
         <v>0</v>
@@ -13071,11 +13035,11 @@
       </c>
       <c r="M128" s="12">
         <f t="shared" si="35"/>
-        <v>3.309027777868323E-2</v>
+        <v>2.9004629628616385E-2</v>
       </c>
       <c r="N128" s="13">
         <f t="shared" si="26"/>
-        <v>47.650000001303852</v>
+        <v>41.766666665207595</v>
       </c>
       <c r="O128" s="13"/>
       <c r="P128" s="13"/>
@@ -13083,7 +13047,7 @@
       <c r="R128" s="62"/>
       <c r="T128" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 20:42:39-0600',mode:absolute,to:'2016-05-09 21:33:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 19:51:08-0600',mode:absolute,to:'2016-05-09 20:36:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="75" t="str">
         <f t="shared" si="28"/>
@@ -13095,15 +13059,15 @@
       </c>
       <c r="W128" s="75">
         <f t="shared" si="29"/>
-        <v>23.302299999999999</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="X128" s="75">
         <f t="shared" si="30"/>
-        <v>1.47E-2</v>
+        <v>23.332899999999999</v>
       </c>
       <c r="Y128" s="75">
         <f t="shared" si="31"/>
-        <v>23.287599999999998</v>
+        <v>23.288</v>
       </c>
       <c r="Z128" s="76" t="e">
         <f>VLOOKUP(A128,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13116,50 +13080,50 @@
     </row>
     <row r="129" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B129" s="61">
-        <v>4018</v>
+        <v>4026</v>
       </c>
       <c r="C129" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="E129" s="30">
-        <v>42499.841932870368</v>
+        <v>42499.863645833335</v>
       </c>
       <c r="F129" s="30">
-        <v>42499.843206018515</v>
+        <v>42499.864687499998</v>
       </c>
       <c r="G129" s="38">
         <v>1</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="I129" s="30">
-        <v>42499.879629629628</v>
+        <v>42499.897777777776</v>
       </c>
       <c r="J129" s="61">
         <v>0</v>
       </c>
       <c r="K129" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4017/4018</v>
+        <v>4025/4026</v>
       </c>
       <c r="L129" s="61" t="str">
         <f>VLOOKUP(A129,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>BRUDER</v>
       </c>
       <c r="M129" s="12">
         <f t="shared" si="35"/>
-        <v>3.6423611112695653E-2</v>
+        <v>3.309027777868323E-2</v>
       </c>
       <c r="N129" s="13">
         <f t="shared" si="26"/>
-        <v>52.45000000228174</v>
+        <v>47.650000001303852</v>
       </c>
       <c r="O129" s="13"/>
       <c r="P129" s="13"/>
@@ -13167,7 +13131,7 @@
       <c r="R129" s="62"/>
       <c r="T129" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 20:11:23-0600',mode:absolute,to:'2016-05-09 21:07:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 20:42:39-0600',mode:absolute,to:'2016-05-09 21:33:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="75" t="str">
         <f t="shared" si="28"/>
@@ -13179,15 +13143,15 @@
       </c>
       <c r="W129" s="75">
         <f t="shared" si="29"/>
-        <v>4.5699999999999998E-2</v>
+        <v>23.302299999999999</v>
       </c>
       <c r="X129" s="75">
         <f t="shared" si="30"/>
-        <v>23.3306</v>
+        <v>1.47E-2</v>
       </c>
       <c r="Y129" s="75">
         <f t="shared" si="31"/>
-        <v>23.2849</v>
+        <v>23.287599999999998</v>
       </c>
       <c r="Z129" s="76" t="e">
         <f>VLOOKUP(A129,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13200,31 +13164,31 @@
     </row>
     <row r="130" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B130" s="61">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C130" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E130" s="30">
-        <v>42499.886944444443</v>
+        <v>42499.841932870368</v>
       </c>
       <c r="F130" s="30">
-        <v>42499.887812499997</v>
+        <v>42499.843206018515</v>
       </c>
       <c r="G130" s="38">
         <v>1</v>
       </c>
       <c r="H130" s="30" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I130" s="30">
-        <v>42499.919756944444</v>
+        <v>42499.879629629628</v>
       </c>
       <c r="J130" s="61">
         <v>0</v>
@@ -13239,11 +13203,11 @@
       </c>
       <c r="M130" s="12">
         <f t="shared" si="35"/>
-        <v>3.1944444446708076E-2</v>
+        <v>3.6423611112695653E-2</v>
       </c>
       <c r="N130" s="13">
         <f t="shared" si="26"/>
-        <v>46.000000003259629</v>
+        <v>52.45000000228174</v>
       </c>
       <c r="O130" s="13"/>
       <c r="P130" s="13"/>
@@ -13251,7 +13215,7 @@
       <c r="R130" s="62"/>
       <c r="T130" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 21:16:12-0600',mode:absolute,to:'2016-05-09 22:05:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 20:11:23-0600',mode:absolute,to:'2016-05-09 21:07:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="75" t="str">
         <f t="shared" si="28"/>
@@ -13263,15 +13227,15 @@
       </c>
       <c r="W130" s="75">
         <f t="shared" si="29"/>
-        <v>23.2989</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="X130" s="75">
         <f t="shared" si="30"/>
-        <v>1.49E-2</v>
+        <v>23.3306</v>
       </c>
       <c r="Y130" s="75">
         <f t="shared" si="31"/>
-        <v>23.283999999999999</v>
+        <v>23.2849</v>
       </c>
       <c r="Z130" s="76" t="e">
         <f>VLOOKUP(A130,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13284,50 +13248,50 @@
     </row>
     <row r="131" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B131" s="61">
-        <v>4038</v>
+        <v>4017</v>
       </c>
       <c r="C131" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E131" s="30">
-        <v>42499.868981481479</v>
+        <v>42499.886944444443</v>
       </c>
       <c r="F131" s="30">
-        <v>42499.87060185185</v>
+        <v>42499.887812499997</v>
       </c>
       <c r="G131" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I131" s="30">
-        <v>42499.901365740741</v>
+        <v>42499.919756944444</v>
       </c>
       <c r="J131" s="61">
         <v>0</v>
       </c>
       <c r="K131" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4037/4038</v>
+        <v>4017/4018</v>
       </c>
       <c r="L131" s="61" t="str">
         <f>VLOOKUP(A131,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YOUNG</v>
+        <v>BARTLETT</v>
       </c>
       <c r="M131" s="12">
         <f t="shared" si="35"/>
-        <v>3.0763888891669922E-2</v>
+        <v>3.1944444446708076E-2</v>
       </c>
       <c r="N131" s="13">
         <f t="shared" si="26"/>
-        <v>44.300000004004687</v>
+        <v>46.000000003259629</v>
       </c>
       <c r="O131" s="13"/>
       <c r="P131" s="13"/>
@@ -13335,7 +13299,7 @@
       <c r="R131" s="62"/>
       <c r="T131" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 20:50:20-0600',mode:absolute,to:'2016-05-09 21:38:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 21:16:12-0600',mode:absolute,to:'2016-05-09 22:05:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="75" t="str">
         <f t="shared" si="28"/>
@@ -13347,15 +13311,15 @@
       </c>
       <c r="W131" s="75">
         <f t="shared" si="29"/>
-        <v>4.5699999999999998E-2</v>
+        <v>23.2989</v>
       </c>
       <c r="X131" s="75">
         <f t="shared" si="30"/>
-        <v>23.331</v>
+        <v>1.49E-2</v>
       </c>
       <c r="Y131" s="75">
         <f t="shared" si="31"/>
-        <v>23.285299999999999</v>
+        <v>23.283999999999999</v>
       </c>
       <c r="Z131" s="76" t="e">
         <f>VLOOKUP(A131,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13368,34 +13332,34 @@
     </row>
     <row r="132" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B132" s="61">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="C132" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="E132" s="30">
-        <v>42499.909571759257</v>
+        <v>42499.868981481479</v>
       </c>
       <c r="F132" s="30">
-        <v>42499.910312499997</v>
+        <v>42499.87060185185</v>
       </c>
       <c r="G132" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" s="30" t="s">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="I132" s="30">
-        <v>42499.943032407406</v>
+        <v>42499.901365740741</v>
       </c>
       <c r="J132" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" s="61" t="str">
         <f t="shared" si="34"/>
@@ -13407,11 +13371,11 @@
       </c>
       <c r="M132" s="12">
         <f t="shared" si="35"/>
-        <v>3.2719907409045845E-2</v>
+        <v>3.0763888891669922E-2</v>
       </c>
       <c r="N132" s="13">
         <f t="shared" si="26"/>
-        <v>47.116666669026017</v>
+        <v>44.300000004004687</v>
       </c>
       <c r="O132" s="13"/>
       <c r="P132" s="13"/>
@@ -13419,27 +13383,27 @@
       <c r="R132" s="62"/>
       <c r="T132" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 21:48:47-0600',mode:absolute,to:'2016-05-09 22:38:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 20:50:20-0600',mode:absolute,to:'2016-05-09 21:38:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="75" t="str">
         <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V132" s="75">
-        <f t="shared" ref="V132:V147" si="36">VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W132" s="75">
         <f t="shared" si="29"/>
-        <v>23.2987</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="X132" s="75">
         <f t="shared" si="30"/>
-        <v>1.9199999999999998E-2</v>
+        <v>23.331</v>
       </c>
       <c r="Y132" s="75">
         <f t="shared" si="31"/>
-        <v>23.279499999999999</v>
+        <v>23.285299999999999</v>
       </c>
       <c r="Z132" s="76" t="e">
         <f>VLOOKUP(A132,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13452,50 +13416,50 @@
     </row>
     <row r="133" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="61" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B133" s="61">
-        <v>4009</v>
+        <v>4037</v>
       </c>
       <c r="C133" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E133" s="30">
-        <v>42499.880682870367</v>
+        <v>42499.909571759257</v>
       </c>
       <c r="F133" s="30">
-        <v>42499.8825</v>
+        <v>42499.910312499997</v>
       </c>
       <c r="G133" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" s="30" t="s">
-        <v>145</v>
+        <v>395</v>
       </c>
       <c r="I133" s="30">
-        <v>42499.92150462963</v>
+        <v>42499.943032407406</v>
       </c>
       <c r="J133" s="61">
         <v>1</v>
       </c>
       <c r="K133" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4009/4010</v>
+        <v>4037/4038</v>
       </c>
       <c r="L133" s="61" t="str">
         <f>VLOOKUP(A133,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>JACKSON</v>
+        <v>YOUNG</v>
       </c>
       <c r="M133" s="12">
         <f t="shared" si="35"/>
-        <v>3.9004629630653653E-2</v>
+        <v>3.2719907409045845E-2</v>
       </c>
       <c r="N133" s="13">
         <f t="shared" si="26"/>
-        <v>56.166666668141261</v>
+        <v>47.116666669026017</v>
       </c>
       <c r="O133" s="13"/>
       <c r="P133" s="13"/>
@@ -13503,67 +13467,67 @@
       <c r="R133" s="62"/>
       <c r="T133" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 21:07:11-0600',mode:absolute,to:'2016-05-09 22:07:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 21:48:47-0600',mode:absolute,to:'2016-05-09 22:38:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="75" t="str">
         <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V133" s="75">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="V133:V148" si="36">VALUE(LEFT(A133,3))-VALUE(LEFT(A132,3))</f>
         <v>1</v>
       </c>
       <c r="W133" s="75">
         <f t="shared" si="29"/>
-        <v>4.5999999999999999E-2</v>
+        <v>23.2987</v>
       </c>
       <c r="X133" s="75">
         <f t="shared" si="30"/>
-        <v>23.329799999999999</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="Y133" s="75">
         <f t="shared" si="31"/>
-        <v>23.283799999999999</v>
-      </c>
-      <c r="Z133" s="76">
+        <v>23.279499999999999</v>
+      </c>
+      <c r="Z133" s="76" t="e">
         <f>VLOOKUP(A133,Enforcements!$C$3:$J$26,8,0)</f>
-        <v>230436</v>
-      </c>
-      <c r="AA133" s="76" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA133" s="76" t="e">
         <f>VLOOKUP(A133,Enforcements!$C$3:$J$26,3,0)</f>
-        <v>PERMANENT SPEED RESTRICTION</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B134" s="61">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="C134" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D134" s="61" t="s">
-        <v>398</v>
+        <v>114</v>
       </c>
       <c r="E134" s="30">
-        <v>42499.954664351855</v>
+        <v>42499.880682870367</v>
       </c>
       <c r="F134" s="30">
-        <v>42499.955659722225</v>
+        <v>42499.8825</v>
       </c>
       <c r="G134" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" s="30" t="s">
-        <v>399</v>
+        <v>145</v>
       </c>
       <c r="I134" s="30">
-        <v>42499.955937500003</v>
+        <v>42499.92150462963</v>
       </c>
       <c r="J134" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" s="61" t="str">
         <f t="shared" si="34"/>
@@ -13575,27 +13539,23 @@
       </c>
       <c r="M134" s="12">
         <f t="shared" si="35"/>
-        <v>2.7777777722803876E-4</v>
-      </c>
-      <c r="N134" s="13"/>
+        <v>3.9004629630653653E-2</v>
+      </c>
+      <c r="N134" s="13">
+        <f t="shared" si="26"/>
+        <v>56.166666668141261</v>
+      </c>
       <c r="O134" s="13"/>
-      <c r="P134" s="13">
-        <f>($M134+M135)*24*60</f>
-        <v>34.266666661715135</v>
-      </c>
-      <c r="Q134" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="R134" s="62" t="s">
-        <v>476</v>
-      </c>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="62"/>
+      <c r="R134" s="62"/>
       <c r="T134" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:53:43-0600',mode:absolute,to:'2016-05-09 22:57:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 21:07:11-0600',mode:absolute,to:'2016-05-09 22:07:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="75" t="str">
         <f t="shared" si="28"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="V134" s="75">
         <f t="shared" si="36"/>
@@ -13603,23 +13563,23 @@
       </c>
       <c r="W134" s="75">
         <f t="shared" si="29"/>
-        <v>15.307499999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="X134" s="75">
         <f t="shared" si="30"/>
-        <v>15.307700000000001</v>
+        <v>23.329799999999999</v>
       </c>
       <c r="Y134" s="75">
         <f t="shared" si="31"/>
-        <v>2.0000000000131024E-4</v>
-      </c>
-      <c r="Z134" s="76" t="e">
+        <v>23.283799999999999</v>
+      </c>
+      <c r="Z134" s="76">
         <f>VLOOKUP(A134,Enforcements!$C$3:$J$26,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA134" s="76" t="e">
+        <v>230436</v>
+      </c>
+      <c r="AA134" s="76" t="str">
         <f>VLOOKUP(A134,Enforcements!$C$3:$J$26,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
     <row r="135" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -13633,22 +13593,22 @@
         <v>80</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>154</v>
+        <v>398</v>
       </c>
       <c r="E135" s="30">
-        <v>42499.928078703706</v>
+        <v>42499.954664351855</v>
       </c>
       <c r="F135" s="30">
-        <v>42499.929166666669</v>
+        <v>42499.955659722225</v>
       </c>
       <c r="G135" s="38">
         <v>1</v>
       </c>
       <c r="H135" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I135" s="30">
-        <v>42499.952685185184</v>
+        <v>42499.955937500003</v>
       </c>
       <c r="J135" s="61">
         <v>0</v>
@@ -13663,16 +13623,23 @@
       </c>
       <c r="M135" s="12">
         <f t="shared" si="35"/>
-        <v>2.3518518515629694E-2</v>
+        <v>2.7777777722803876E-4</v>
       </c>
       <c r="N135" s="13"/>
       <c r="O135" s="13"/>
-      <c r="P135" s="13"/>
-      <c r="Q135" s="62"/>
-      <c r="R135" s="62"/>
+      <c r="P135" s="13">
+        <f>($M135+M136)*24*60</f>
+        <v>34.266666661715135</v>
+      </c>
+      <c r="Q135" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="R135" s="62" t="s">
+        <v>475</v>
+      </c>
       <c r="T135" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:15:26-0600',mode:absolute,to:'2016-05-09 22:52:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:53:43-0600',mode:absolute,to:'2016-05-09 22:57:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U135" s="75" t="str">
         <f t="shared" si="28"/>
@@ -13680,19 +13647,19 @@
       </c>
       <c r="V135" s="75">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W135" s="75">
         <f t="shared" si="29"/>
-        <v>23.2987</v>
+        <v>15.307499999999999</v>
       </c>
       <c r="X135" s="75">
         <f t="shared" si="30"/>
-        <v>15.3071</v>
+        <v>15.307700000000001</v>
       </c>
       <c r="Y135" s="75">
         <f t="shared" si="31"/>
-        <v>7.9916</v>
+        <v>2.0000000000131024E-4</v>
       </c>
       <c r="Z135" s="76" t="e">
         <f>VLOOKUP(A135,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13705,78 +13672,75 @@
     </row>
     <row r="136" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="61" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B136" s="61">
-        <v>4025</v>
+        <v>4010</v>
       </c>
       <c r="C136" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="E136" s="30">
-        <v>42499.90011574074</v>
+        <v>42499.928078703706</v>
       </c>
       <c r="F136" s="30">
-        <v>42499.901261574072</v>
+        <v>42499.929166666669</v>
       </c>
       <c r="G136" s="38">
         <v>1</v>
       </c>
       <c r="H136" s="30" t="s">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="I136" s="30">
-        <v>42499.942118055558</v>
+        <v>42499.952685185184</v>
       </c>
       <c r="J136" s="61">
         <v>0</v>
       </c>
       <c r="K136" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4025/4026</v>
+        <v>4009/4010</v>
       </c>
       <c r="L136" s="61" t="str">
         <f>VLOOKUP(A136,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>JACKSON</v>
       </c>
       <c r="M136" s="12">
         <f t="shared" si="35"/>
-        <v>4.0856481486116536E-2</v>
-      </c>
-      <c r="N136" s="13">
-        <f t="shared" si="26"/>
-        <v>58.833333340007812</v>
-      </c>
+        <v>2.3518518515629694E-2</v>
+      </c>
+      <c r="N136" s="13"/>
       <c r="O136" s="13"/>
       <c r="P136" s="13"/>
       <c r="Q136" s="62"/>
       <c r="R136" s="62"/>
       <c r="T136" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 21:35:10-0600',mode:absolute,to:'2016-05-09 22:37:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:15:26-0600',mode:absolute,to:'2016-05-09 22:52:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U136" s="75" t="str">
         <f t="shared" si="28"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="V136" s="75">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W136" s="75">
         <f t="shared" si="29"/>
-        <v>4.4400000000000002E-2</v>
+        <v>23.2987</v>
       </c>
       <c r="X136" s="75">
         <f t="shared" si="30"/>
-        <v>23.331</v>
+        <v>15.3071</v>
       </c>
       <c r="Y136" s="75">
         <f t="shared" si="31"/>
-        <v>23.2866</v>
+        <v>7.9916</v>
       </c>
       <c r="Z136" s="76" t="e">
         <f>VLOOKUP(A136,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13789,31 +13753,31 @@
     </row>
     <row r="137" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B137" s="61">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="C137" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E137" s="30">
-        <v>42499.943391203706</v>
+        <v>42499.90011574074</v>
       </c>
       <c r="F137" s="30">
-        <v>42499.944722222222</v>
+        <v>42499.901261574072</v>
       </c>
       <c r="G137" s="38">
         <v>1</v>
       </c>
       <c r="H137" s="30" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="I137" s="30">
-        <v>42499.983506944445</v>
+        <v>42499.942118055558</v>
       </c>
       <c r="J137" s="61">
         <v>0</v>
@@ -13828,11 +13792,11 @@
       </c>
       <c r="M137" s="12">
         <f t="shared" si="35"/>
-        <v>3.8784722222771961E-2</v>
+        <v>4.0856481486116536E-2</v>
       </c>
       <c r="N137" s="13">
         <f t="shared" si="26"/>
-        <v>55.850000000791624</v>
+        <v>58.833333340007812</v>
       </c>
       <c r="O137" s="13"/>
       <c r="P137" s="13"/>
@@ -13840,7 +13804,7 @@
       <c r="R137" s="62"/>
       <c r="T137" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:37:29-0600',mode:absolute,to:'2016-05-09 23:37:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 21:35:10-0600',mode:absolute,to:'2016-05-09 22:37:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U137" s="75" t="str">
         <f t="shared" si="28"/>
@@ -13852,15 +13816,15 @@
       </c>
       <c r="W137" s="75">
         <f t="shared" si="29"/>
-        <v>23.298300000000001</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="X137" s="75">
         <f t="shared" si="30"/>
-        <v>1.34E-2</v>
+        <v>23.331</v>
       </c>
       <c r="Y137" s="75">
         <f t="shared" si="31"/>
-        <v>23.2849</v>
+        <v>23.2866</v>
       </c>
       <c r="Z137" s="76" t="e">
         <f>VLOOKUP(A137,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13873,50 +13837,50 @@
     </row>
     <row r="138" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B138" s="61">
-        <v>4018</v>
+        <v>4026</v>
       </c>
       <c r="C138" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>404</v>
+        <v>147</v>
       </c>
       <c r="E138" s="30">
-        <v>42499.925856481481</v>
+        <v>42499.943391203706</v>
       </c>
       <c r="F138" s="30">
-        <v>42499.926921296297</v>
+        <v>42499.944722222222</v>
       </c>
       <c r="G138" s="38">
         <v>1</v>
       </c>
       <c r="H138" s="30" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="I138" s="30">
-        <v>42499.964722222219</v>
+        <v>42499.983506944445</v>
       </c>
       <c r="J138" s="61">
         <v>0</v>
       </c>
       <c r="K138" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4017/4018</v>
+        <v>4025/4026</v>
       </c>
       <c r="L138" s="61" t="str">
         <f>VLOOKUP(A138,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>BRUDER</v>
       </c>
       <c r="M138" s="12">
         <f t="shared" si="35"/>
-        <v>3.7800925922056194E-2</v>
+        <v>3.8784722222771961E-2</v>
       </c>
       <c r="N138" s="13">
         <f t="shared" si="26"/>
-        <v>54.43333332776092</v>
+        <v>55.850000000791624</v>
       </c>
       <c r="O138" s="13"/>
       <c r="P138" s="13"/>
@@ -13924,7 +13888,7 @@
       <c r="R138" s="62"/>
       <c r="T138" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:12:14-0600',mode:absolute,to:'2016-05-09 23:10:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:37:29-0600',mode:absolute,to:'2016-05-09 23:37:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U138" s="75" t="str">
         <f t="shared" si="28"/>
@@ -13936,15 +13900,15 @@
       </c>
       <c r="W138" s="75">
         <f t="shared" si="29"/>
-        <v>4.9099999999999998E-2</v>
+        <v>23.298300000000001</v>
       </c>
       <c r="X138" s="75">
         <f t="shared" si="30"/>
-        <v>23.331</v>
+        <v>1.34E-2</v>
       </c>
       <c r="Y138" s="75">
         <f t="shared" si="31"/>
-        <v>23.2819</v>
+        <v>23.2849</v>
       </c>
       <c r="Z138" s="76" t="e">
         <f>VLOOKUP(A138,Enforcements!$C$3:$J$26,8,0)</f>
@@ -13957,31 +13921,31 @@
     </row>
     <row r="139" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B139" s="61">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C139" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>122</v>
+        <v>404</v>
       </c>
       <c r="E139" s="30">
-        <v>42499.968877314815</v>
+        <v>42499.925856481481</v>
       </c>
       <c r="F139" s="30">
-        <v>42499.970347222225</v>
+        <v>42499.926921296297</v>
       </c>
       <c r="G139" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" s="30" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I139" s="30">
-        <v>42500.003078703703</v>
+        <v>42499.964722222219</v>
       </c>
       <c r="J139" s="61">
         <v>0</v>
@@ -13996,11 +13960,11 @@
       </c>
       <c r="M139" s="12">
         <f t="shared" si="35"/>
-        <v>3.273148147854954E-2</v>
+        <v>3.7800925922056194E-2</v>
       </c>
       <c r="N139" s="13">
         <f t="shared" si="26"/>
-        <v>47.133333329111338</v>
+        <v>54.43333332776092</v>
       </c>
       <c r="O139" s="13"/>
       <c r="P139" s="13"/>
@@ -14008,7 +13972,7 @@
       <c r="R139" s="62"/>
       <c r="T139" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 23:14:11-0600',mode:absolute,to:'2016-05-10 00:05:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:12:14-0600',mode:absolute,to:'2016-05-09 23:10:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U139" s="75" t="str">
         <f t="shared" si="28"/>
@@ -14020,15 +13984,15 @@
       </c>
       <c r="W139" s="75">
         <f t="shared" si="29"/>
-        <v>23.299399999999999</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="X139" s="75">
         <f t="shared" si="30"/>
-        <v>1.54E-2</v>
+        <v>23.331</v>
       </c>
       <c r="Y139" s="75">
         <f t="shared" si="31"/>
-        <v>23.283999999999999</v>
+        <v>23.2819</v>
       </c>
       <c r="Z139" s="76" t="e">
         <f>VLOOKUP(A139,Enforcements!$C$3:$J$26,8,0)</f>
@@ -14041,50 +14005,50 @@
     </row>
     <row r="140" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B140" s="61">
-        <v>4038</v>
+        <v>4017</v>
       </c>
       <c r="C140" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>404</v>
+        <v>122</v>
       </c>
       <c r="E140" s="30">
-        <v>42499.94871527778</v>
+        <v>42499.968877314815</v>
       </c>
       <c r="F140" s="30">
-        <v>42499.950243055559</v>
+        <v>42499.970347222225</v>
       </c>
       <c r="G140" s="38">
         <v>2</v>
       </c>
       <c r="H140" s="30" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="I140" s="30">
-        <v>42499.984907407408</v>
+        <v>42500.003078703703</v>
       </c>
       <c r="J140" s="61">
         <v>0</v>
       </c>
       <c r="K140" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4037/4038</v>
+        <v>4017/4018</v>
       </c>
       <c r="L140" s="61" t="str">
         <f>VLOOKUP(A140,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>YOUNG</v>
+        <v>BARTLETT</v>
       </c>
       <c r="M140" s="12">
         <f t="shared" si="35"/>
-        <v>3.4664351849642117E-2</v>
+        <v>3.273148147854954E-2</v>
       </c>
       <c r="N140" s="13">
         <f t="shared" si="26"/>
-        <v>49.916666663484648</v>
+        <v>47.133333329111338</v>
       </c>
       <c r="O140" s="13"/>
       <c r="P140" s="13"/>
@@ -14092,7 +14056,7 @@
       <c r="R140" s="62"/>
       <c r="T140" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:45:09-0600',mode:absolute,to:'2016-05-09 23:39:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 23:14:11-0600',mode:absolute,to:'2016-05-10 00:05:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U140" s="75" t="str">
         <f t="shared" si="28"/>
@@ -14104,15 +14068,15 @@
       </c>
       <c r="W140" s="75">
         <f t="shared" si="29"/>
-        <v>4.9099999999999998E-2</v>
+        <v>23.299399999999999</v>
       </c>
       <c r="X140" s="75">
         <f t="shared" si="30"/>
-        <v>23.331399999999999</v>
+        <v>1.54E-2</v>
       </c>
       <c r="Y140" s="75">
         <f t="shared" si="31"/>
-        <v>23.282299999999999</v>
+        <v>23.283999999999999</v>
       </c>
       <c r="Z140" s="76" t="e">
         <f>VLOOKUP(A140,Enforcements!$C$3:$J$26,8,0)</f>
@@ -14125,31 +14089,31 @@
     </row>
     <row r="141" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B141" s="61">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="C141" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>154</v>
+        <v>404</v>
       </c>
       <c r="E141" s="30">
-        <v>42499.993356481478</v>
+        <v>42499.94871527778</v>
       </c>
       <c r="F141" s="30">
-        <v>42499.994317129633</v>
+        <v>42499.950243055559</v>
       </c>
       <c r="G141" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" s="30" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I141" s="30">
-        <v>42500.026574074072</v>
+        <v>42499.984907407408</v>
       </c>
       <c r="J141" s="61">
         <v>0</v>
@@ -14164,11 +14128,11 @@
       </c>
       <c r="M141" s="12">
         <f t="shared" si="35"/>
-        <v>3.2256944439723156E-2</v>
+        <v>3.4664351849642117E-2</v>
       </c>
       <c r="N141" s="13">
         <f t="shared" si="26"/>
-        <v>46.449999993201345</v>
+        <v>49.916666663484648</v>
       </c>
       <c r="O141" s="13"/>
       <c r="P141" s="13"/>
@@ -14176,7 +14140,7 @@
       <c r="R141" s="62"/>
       <c r="T141" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 23:49:26-0600',mode:absolute,to:'2016-05-10 00:39:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 22:45:09-0600',mode:absolute,to:'2016-05-09 23:39:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U141" s="75" t="str">
         <f t="shared" si="28"/>
@@ -14188,15 +14152,15 @@
       </c>
       <c r="W141" s="75">
         <f t="shared" si="29"/>
-        <v>23.2987</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="X141" s="75">
         <f t="shared" si="30"/>
-        <v>1.6299999999999999E-2</v>
+        <v>23.331399999999999</v>
       </c>
       <c r="Y141" s="75">
         <f t="shared" si="31"/>
-        <v>23.282399999999999</v>
+        <v>23.282299999999999</v>
       </c>
       <c r="Z141" s="76" t="e">
         <f>VLOOKUP(A141,Enforcements!$C$3:$J$26,8,0)</f>
@@ -14209,50 +14173,50 @@
     </row>
     <row r="142" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B142" s="61">
-        <v>4009</v>
+        <v>4037</v>
       </c>
       <c r="C142" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D142" s="61" t="s">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="E142" s="30">
-        <v>42499.978518518517</v>
+        <v>42499.993356481478</v>
       </c>
       <c r="F142" s="30">
-        <v>42499.97991898148</v>
+        <v>42499.994317129633</v>
       </c>
       <c r="G142" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" s="30" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="I142" s="30">
-        <v>42500.006458333337</v>
+        <v>42500.026574074072</v>
       </c>
       <c r="J142" s="61">
         <v>0</v>
       </c>
       <c r="K142" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4009/4010</v>
+        <v>4037/4038</v>
       </c>
       <c r="L142" s="61" t="str">
         <f>VLOOKUP(A142,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>JACKSON</v>
+        <v>YOUNG</v>
       </c>
       <c r="M142" s="12">
         <f t="shared" si="35"/>
-        <v>2.6539351856627036E-2</v>
+        <v>3.2256944439723156E-2</v>
       </c>
       <c r="N142" s="13">
         <f t="shared" si="26"/>
-        <v>38.216666673542932</v>
+        <v>46.449999993201345</v>
       </c>
       <c r="O142" s="13"/>
       <c r="P142" s="13"/>
@@ -14260,7 +14224,7 @@
       <c r="R142" s="62"/>
       <c r="T142" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 23:28:04-0600',mode:absolute,to:'2016-05-10 00:10:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 23:49:26-0600',mode:absolute,to:'2016-05-10 00:39:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U142" s="75" t="str">
         <f t="shared" si="28"/>
@@ -14272,15 +14236,15 @@
       </c>
       <c r="W142" s="75">
         <f t="shared" si="29"/>
-        <v>4.7500000000000001E-2</v>
+        <v>23.2987</v>
       </c>
       <c r="X142" s="75">
         <f t="shared" si="30"/>
-        <v>23.329699999999999</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y142" s="75">
         <f t="shared" si="31"/>
-        <v>23.2822</v>
+        <v>23.282399999999999</v>
       </c>
       <c r="Z142" s="76" t="e">
         <f>VLOOKUP(A142,Enforcements!$C$3:$J$26,8,0)</f>
@@ -14293,31 +14257,31 @@
     </row>
     <row r="143" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B143" s="61">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="C143" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="E143" s="30">
-        <v>42500.011273148149</v>
+        <v>42499.978518518517</v>
       </c>
       <c r="F143" s="30">
-        <v>42500.012766203705</v>
+        <v>42499.97991898148</v>
       </c>
       <c r="G143" s="38">
         <v>2</v>
       </c>
       <c r="H143" s="30" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I143" s="30">
-        <v>42500.045624999999</v>
+        <v>42500.006458333337</v>
       </c>
       <c r="J143" s="61">
         <v>0</v>
@@ -14332,11 +14296,11 @@
       </c>
       <c r="M143" s="12">
         <f t="shared" si="35"/>
-        <v>3.2858796294021886E-2</v>
+        <v>2.6539351856627036E-2</v>
       </c>
       <c r="N143" s="13">
         <f t="shared" si="26"/>
-        <v>47.316666663391516</v>
+        <v>38.216666673542932</v>
       </c>
       <c r="O143" s="13"/>
       <c r="P143" s="13"/>
@@ -14344,7 +14308,7 @@
       <c r="R143" s="62"/>
       <c r="T143" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 00:15:14-0600',mode:absolute,to:'2016-05-10 01:06:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 23:28:04-0600',mode:absolute,to:'2016-05-10 00:10:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U143" s="75" t="str">
         <f t="shared" si="28"/>
@@ -14356,15 +14320,15 @@
       </c>
       <c r="W143" s="75">
         <f t="shared" si="29"/>
-        <v>23.297699999999999</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="X143" s="75">
         <f t="shared" si="30"/>
-        <v>1.6E-2</v>
+        <v>23.329699999999999</v>
       </c>
       <c r="Y143" s="75">
         <f t="shared" si="31"/>
-        <v>23.281700000000001</v>
+        <v>23.2822</v>
       </c>
       <c r="Z143" s="76" t="e">
         <f>VLOOKUP(A143,Enforcements!$C$3:$J$26,8,0)</f>
@@ -14377,50 +14341,50 @@
     </row>
     <row r="144" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="61" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B144" s="61">
-        <v>4025</v>
+        <v>4010</v>
       </c>
       <c r="C144" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E144" s="30">
-        <v>42499.986504629633</v>
+        <v>42500.011273148149</v>
       </c>
       <c r="F144" s="30">
-        <v>42499.987685185188</v>
+        <v>42500.012766203705</v>
       </c>
       <c r="G144" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" s="30" t="s">
-        <v>412</v>
+        <v>97</v>
       </c>
       <c r="I144" s="30">
-        <v>42500.024861111109</v>
+        <v>42500.045624999999</v>
       </c>
       <c r="J144" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4025/4026</v>
+        <v>4009/4010</v>
       </c>
       <c r="L144" s="61" t="str">
         <f>VLOOKUP(A144,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>JACKSON</v>
       </c>
       <c r="M144" s="12">
         <f t="shared" si="35"/>
-        <v>3.7175925921474118E-2</v>
+        <v>3.2858796294021886E-2</v>
       </c>
       <c r="N144" s="13">
         <f t="shared" si="26"/>
-        <v>53.53333332692273</v>
+        <v>47.316666663391516</v>
       </c>
       <c r="O144" s="13"/>
       <c r="P144" s="13"/>
@@ -14428,7 +14392,7 @@
       <c r="R144" s="62"/>
       <c r="T144" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 23:39:34-0600',mode:absolute,to:'2016-05-10 00:36:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 00:15:14-0600',mode:absolute,to:'2016-05-10 01:06:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U144" s="75" t="str">
         <f t="shared" si="28"/>
@@ -14440,15 +14404,15 @@
       </c>
       <c r="W144" s="75">
         <f t="shared" si="29"/>
-        <v>4.58E-2</v>
+        <v>23.297699999999999</v>
       </c>
       <c r="X144" s="75">
         <f t="shared" si="30"/>
-        <v>23.336600000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Y144" s="75">
         <f t="shared" si="31"/>
-        <v>23.290800000000001</v>
+        <v>23.281700000000001</v>
       </c>
       <c r="Z144" s="76" t="e">
         <f>VLOOKUP(A144,Enforcements!$C$3:$J$26,8,0)</f>
@@ -14461,34 +14425,34 @@
     </row>
     <row r="145" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="61" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B145" s="61">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="C145" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
       <c r="E145" s="30">
-        <v>42500.031585648147</v>
+        <v>42499.986504629633</v>
       </c>
       <c r="F145" s="30">
-        <v>42500.032557870371</v>
+        <v>42499.987685185188</v>
       </c>
       <c r="G145" s="38">
         <v>1</v>
       </c>
       <c r="H145" s="30" t="s">
-        <v>142</v>
+        <v>412</v>
       </c>
       <c r="I145" s="30">
-        <v>42500.064108796294</v>
+        <v>42500.024861111109</v>
       </c>
       <c r="J145" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="61" t="str">
         <f t="shared" si="34"/>
@@ -14500,11 +14464,11 @@
       </c>
       <c r="M145" s="12">
         <f t="shared" si="35"/>
-        <v>3.1550925923511386E-2</v>
+        <v>3.7175925921474118E-2</v>
       </c>
       <c r="N145" s="13">
-        <f t="shared" ref="N145:N147" si="37">$M145*24*60</f>
-        <v>45.433333329856396</v>
+        <f t="shared" si="26"/>
+        <v>53.53333332692273</v>
       </c>
       <c r="O145" s="13"/>
       <c r="P145" s="13"/>
@@ -14512,7 +14476,7 @@
       <c r="R145" s="62"/>
       <c r="T145" s="75" t="str">
         <f t="shared" si="27"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 00:44:29-0600',mode:absolute,to:'2016-05-10 01:33:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-09 23:39:34-0600',mode:absolute,to:'2016-05-10 00:36:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U145" s="75" t="str">
         <f t="shared" si="28"/>
@@ -14524,15 +14488,15 @@
       </c>
       <c r="W145" s="75">
         <f t="shared" si="29"/>
-        <v>23.303799999999999</v>
+        <v>4.58E-2</v>
       </c>
       <c r="X145" s="75">
         <f t="shared" si="30"/>
-        <v>1.4999999999999999E-2</v>
+        <v>23.336600000000001</v>
       </c>
       <c r="Y145" s="75">
         <f t="shared" si="31"/>
-        <v>23.288799999999998</v>
+        <v>23.290800000000001</v>
       </c>
       <c r="Z145" s="76" t="e">
         <f>VLOOKUP(A145,Enforcements!$C$3:$J$26,8,0)</f>
@@ -14545,61 +14509,61 @@
     </row>
     <row r="146" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="61" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B146" s="61">
-        <v>4018</v>
+        <v>4026</v>
       </c>
       <c r="C146" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="E146" s="30">
-        <v>42500.010833333334</v>
+        <v>42500.031585648147</v>
       </c>
       <c r="F146" s="30">
-        <v>42500.012002314812</v>
+        <v>42500.032557870371</v>
       </c>
       <c r="G146" s="38">
         <v>1</v>
       </c>
       <c r="H146" s="30" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="I146" s="30">
-        <v>42500.046157407407</v>
+        <v>42500.064108796294</v>
       </c>
       <c r="J146" s="61">
         <v>0</v>
       </c>
       <c r="K146" s="61" t="str">
         <f t="shared" si="34"/>
-        <v>4017/4018</v>
+        <v>4025/4026</v>
       </c>
       <c r="L146" s="61" t="str">
         <f>VLOOKUP(A146,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>BRUDER</v>
       </c>
       <c r="M146" s="12">
         <f t="shared" si="35"/>
-        <v>3.4155092595028691E-2</v>
+        <v>3.1550925923511386E-2</v>
       </c>
       <c r="N146" s="13">
-        <f t="shared" si="37"/>
-        <v>49.183333336841315</v>
+        <f t="shared" ref="N146:N148" si="37">$M146*24*60</f>
+        <v>45.433333329856396</v>
       </c>
       <c r="O146" s="13"/>
       <c r="P146" s="13"/>
       <c r="Q146" s="62"/>
       <c r="R146" s="62"/>
       <c r="T146" s="75" t="str">
-        <f t="shared" ref="T146:T147" si="38">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E146-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I146+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B146&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 00:14:36-0600',mode:absolute,to:'2016-05-10 01:07:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="27"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 00:44:29-0600',mode:absolute,to:'2016-05-10 01:33:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U146" s="75" t="str">
-        <f t="shared" ref="U146:U147" si="39">IF(Y146&lt;23,"Y","N")</f>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V146" s="75">
@@ -14607,16 +14571,16 @@
         <v>1</v>
       </c>
       <c r="W146" s="75">
-        <f t="shared" ref="W146:W147" si="40">RIGHT(D146,LEN(D146)-4)/10000</f>
-        <v>4.5499999999999999E-2</v>
+        <f t="shared" si="29"/>
+        <v>23.303799999999999</v>
       </c>
       <c r="X146" s="75">
-        <f t="shared" ref="X146:X147" si="41">RIGHT(H146,LEN(H146)-4)/10000</f>
-        <v>23.329699999999999</v>
+        <f t="shared" si="30"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y146" s="75">
-        <f t="shared" ref="Y146:Y147" si="42">ABS(X146-W146)</f>
-        <v>23.284199999999998</v>
+        <f t="shared" si="31"/>
+        <v>23.288799999999998</v>
       </c>
       <c r="Z146" s="76" t="e">
         <f>VLOOKUP(A146,Enforcements!$C$3:$J$26,8,0)</f>
@@ -14629,31 +14593,31 @@
     </row>
     <row r="147" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B147" s="61">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C147" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E147" s="30">
-        <v>42500.053460648145</v>
+        <v>42500.010833333334</v>
       </c>
       <c r="F147" s="30">
-        <v>42500.054652777777</v>
+        <v>42500.012002314812</v>
       </c>
       <c r="G147" s="38">
         <v>1</v>
       </c>
       <c r="H147" s="30" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I147" s="30">
-        <v>42500.0858912037</v>
+        <v>42500.046157407407</v>
       </c>
       <c r="J147" s="61">
         <v>0</v>
@@ -14668,124 +14632,178 @@
       </c>
       <c r="M147" s="12">
         <f t="shared" si="35"/>
-        <v>3.1238425923220348E-2</v>
+        <v>3.4155092595028691E-2</v>
       </c>
       <c r="N147" s="13">
         <f t="shared" si="37"/>
-        <v>44.983333329437301</v>
+        <v>49.183333336841315</v>
       </c>
       <c r="O147" s="13"/>
       <c r="P147" s="13"/>
       <c r="Q147" s="62"/>
       <c r="R147" s="62"/>
       <c r="T147" s="75" t="str">
+        <f t="shared" ref="T147:T148" si="38">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E147-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I147+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B147&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 00:14:36-0600',mode:absolute,to:'2016-05-10 01:07:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U147" s="75" t="str">
+        <f t="shared" ref="U147:U148" si="39">IF(Y147&lt;23,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="V147" s="75">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="W147" s="75">
+        <f t="shared" ref="W147:W148" si="40">RIGHT(D147,LEN(D147)-4)/10000</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="X147" s="75">
+        <f t="shared" ref="X147:X148" si="41">RIGHT(H147,LEN(H147)-4)/10000</f>
+        <v>23.329699999999999</v>
+      </c>
+      <c r="Y147" s="75">
+        <f t="shared" ref="Y147:Y148" si="42">ABS(X147-W147)</f>
+        <v>23.284199999999998</v>
+      </c>
+      <c r="Z147" s="76" t="e">
+        <f>VLOOKUP(A147,Enforcements!$C$3:$J$26,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA147" s="76" t="e">
+        <f>VLOOKUP(A147,Enforcements!$C$3:$J$26,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="B148" s="61">
+        <v>4017</v>
+      </c>
+      <c r="C148" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E148" s="30">
+        <v>42500.053460648145</v>
+      </c>
+      <c r="F148" s="30">
+        <v>42500.054652777777</v>
+      </c>
+      <c r="G148" s="38">
+        <v>1</v>
+      </c>
+      <c r="H148" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I148" s="30">
+        <v>42500.0858912037</v>
+      </c>
+      <c r="J148" s="61">
+        <v>0</v>
+      </c>
+      <c r="K148" s="61" t="str">
+        <f t="shared" si="34"/>
+        <v>4017/4018</v>
+      </c>
+      <c r="L148" s="61" t="str">
+        <f>VLOOKUP(A148,'Trips&amp;Operators'!$C$1:$E$9999,3,FALSE)</f>
+        <v>BARTLETT</v>
+      </c>
+      <c r="M148" s="12">
+        <f t="shared" si="35"/>
+        <v>3.1238425923220348E-2</v>
+      </c>
+      <c r="N148" s="13">
+        <f t="shared" si="37"/>
+        <v>44.983333329437301</v>
+      </c>
+      <c r="O148" s="13"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="62"/>
+      <c r="R148" s="62"/>
+      <c r="T148" s="75" t="str">
         <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 01:15:59-0600',mode:absolute,to:'2016-05-10 02:04:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U147" s="75" t="str">
+      <c r="U148" s="75" t="str">
         <f t="shared" si="39"/>
         <v>N</v>
       </c>
-      <c r="V147" s="75">
+      <c r="V148" s="75">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="W147" s="75">
+      <c r="W148" s="75">
         <f t="shared" si="40"/>
         <v>23.298500000000001</v>
       </c>
-      <c r="X147" s="75">
+      <c r="X148" s="75">
         <f t="shared" si="41"/>
         <v>1.54E-2</v>
       </c>
-      <c r="Y147" s="75">
+      <c r="Y148" s="75">
         <f t="shared" si="42"/>
         <v>23.283100000000001</v>
       </c>
-      <c r="Z147" s="76" t="e">
-        <f>VLOOKUP(A147,Enforcements!$C$3:$J$26,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA147" s="76" t="e">
-        <f>VLOOKUP(A147,Enforcements!$C$3:$J$26,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="64"/>
-      <c r="B148" s="64"/>
-      <c r="C148" s="64"/>
-      <c r="D148" s="64"/>
-      <c r="E148" s="65"/>
-      <c r="F148" s="65"/>
-      <c r="G148" s="66"/>
-      <c r="H148" s="65"/>
-      <c r="I148" s="65"/>
-      <c r="J148" s="64"/>
-      <c r="K148" s="64"/>
-      <c r="L148" s="64"/>
-      <c r="M148" s="67"/>
-      <c r="N148" s="68"/>
-      <c r="O148" s="68"/>
-      <c r="P148" s="68"/>
-      <c r="Q148" s="69"/>
-      <c r="R148" s="69"/>
-      <c r="T148" s="70"/>
-      <c r="U148" s="70"/>
-      <c r="V148" s="70"/>
-      <c r="W148" s="70"/>
-      <c r="X148" s="70"/>
-      <c r="Y148" s="70"/>
-      <c r="Z148" s="71"/>
-      <c r="AA148" s="71"/>
+      <c r="Z148" s="76" t="e">
+        <f>VLOOKUP(A148,Enforcements!$C$3:$J$26,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA148" s="76" t="e">
+        <f>VLOOKUP(A148,Enforcements!$C$3:$J$26,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="149" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="78">
-        <f>Variables!A2</f>
-        <v>42499</v>
-      </c>
-      <c r="J149" s="79"/>
-      <c r="K149" s="77"/>
-      <c r="L149" s="77"/>
-      <c r="M149" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="N149" s="81"/>
-      <c r="O149" s="82"/>
-      <c r="P149" s="5"/>
-      <c r="T149" s="57"/>
-      <c r="U149" s="57"/>
-      <c r="V149" s="57"/>
-      <c r="W149" s="57"/>
-      <c r="X149" s="57"/>
-      <c r="Y149" s="57"/>
-      <c r="Z149" s="58"/>
-      <c r="AA149" s="58"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="65"/>
+      <c r="J149" s="64"/>
+      <c r="K149" s="64"/>
+      <c r="L149" s="64"/>
+      <c r="M149" s="67"/>
+      <c r="N149" s="68"/>
+      <c r="O149" s="68"/>
+      <c r="P149" s="68"/>
+      <c r="Q149" s="69"/>
+      <c r="R149" s="69"/>
+      <c r="T149" s="70"/>
+      <c r="U149" s="70"/>
+      <c r="V149" s="70"/>
+      <c r="W149" s="70"/>
+      <c r="X149" s="70"/>
+      <c r="Y149" s="70"/>
+      <c r="Z149" s="71"/>
+      <c r="AA149" s="71"/>
     </row>
     <row r="150" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E150" s="31"/>
       <c r="F150" s="31"/>
       <c r="G150" s="39"/>
       <c r="H150" s="31"/>
-      <c r="I150" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="J150" s="84"/>
-      <c r="K150" s="35"/>
-      <c r="L150" s="59"/>
-      <c r="M150" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N150" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O150" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="I150" s="78">
+        <f>Variables!A2</f>
+        <v>42499</v>
+      </c>
+      <c r="J150" s="79"/>
+      <c r="K150" s="77"/>
+      <c r="L150" s="77"/>
+      <c r="M150" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="N150" s="81"/>
+      <c r="O150" s="82"/>
       <c r="P150" s="5"/>
       <c r="T150" s="57"/>
       <c r="U150" s="57"/>
@@ -14801,23 +14819,20 @@
       <c r="F151" s="31"/>
       <c r="G151" s="39"/>
       <c r="H151" s="31"/>
-      <c r="I151" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" s="3">
-        <f>COUNT(N3:P147)</f>
-        <v>142</v>
-      </c>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="72" t="s">
-        <v>15</v>
+      <c r="I151" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="J151" s="84"/>
+      <c r="K151" s="35"/>
+      <c r="L151" s="59"/>
+      <c r="M151" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P151" s="5"/>
       <c r="T151" s="57"/>
@@ -14835,25 +14850,22 @@
       <c r="G152" s="39"/>
       <c r="H152" s="31"/>
       <c r="I152" s="32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J152" s="3">
-        <f>COUNT(N3:N147)</f>
-        <v>137</v>
+        <f>COUNT(N3:P148)</f>
+        <v>143</v>
       </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
-      <c r="M152" s="72">
-        <f>AVERAGE(N3:N147)</f>
-        <v>43.967274939275967</v>
-      </c>
-      <c r="N152" s="6">
-        <f>MIN(N3:N147)</f>
-        <v>36.116666675079614</v>
-      </c>
-      <c r="O152" s="7">
-        <f>MAX(N3:N147)</f>
-        <v>58.833333340007812</v>
+      <c r="M152" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O152" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="P152" s="5"/>
       <c r="T152" s="57"/>
@@ -14866,46 +14878,40 @@
       <c r="AA152" s="58"/>
     </row>
     <row r="153" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="40"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="33" t="s">
-        <v>45</v>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J153" s="3">
-        <f>COUNT(O3:O147)</f>
-        <v>0</v>
+        <f>COUNT(N3:N148)</f>
+        <v>137</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="72">
-        <f>IFERROR(AVERAGE(O3:O147),0)</f>
-        <v>0</v>
+        <f>AVERAGE(N3:N148)</f>
+        <v>43.967274939275967</v>
       </c>
       <c r="N153" s="6">
-        <f>MIN(O3:O147)</f>
-        <v>0</v>
+        <f>MIN(N3:N148)</f>
+        <v>36.116666675079614</v>
       </c>
       <c r="O153" s="7">
-        <f>MAX(O3:O147)</f>
-        <v>0</v>
-      </c>
-      <c r="P153" s="4"/>
-      <c r="Q153"/>
-      <c r="R153"/>
-      <c r="S153"/>
-      <c r="T153" s="55"/>
-      <c r="U153" s="55"/>
-      <c r="V153" s="55"/>
-      <c r="W153" s="55"/>
-      <c r="X153" s="55"/>
-      <c r="Y153" s="55"/>
-      <c r="Z153" s="56"/>
-      <c r="AA153" s="56"/>
+        <f>MAX(N3:N148)</f>
+        <v>58.833333340007812</v>
+      </c>
+      <c r="P153" s="5"/>
+      <c r="T153" s="57"/>
+      <c r="U153" s="57"/>
+      <c r="V153" s="57"/>
+      <c r="W153" s="57"/>
+      <c r="X153" s="57"/>
+      <c r="Y153" s="57"/>
+      <c r="Z153" s="58"/>
+      <c r="AA153" s="58"/>
     </row>
     <row r="154" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154"/>
@@ -14915,23 +14921,26 @@
       <c r="F154" s="14"/>
       <c r="G154" s="40"/>
       <c r="H154" s="14"/>
-      <c r="I154" s="34" t="s">
-        <v>9</v>
+      <c r="I154" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="J154" s="3">
-        <f>COUNT(P3:P147)</f>
-        <v>5</v>
+        <f>COUNT(O3:O148)</f>
+        <v>0</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
-      <c r="M154" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="N154" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O154" s="7" t="s">
-        <v>15</v>
+      <c r="M154" s="72">
+        <f>IFERROR(AVERAGE(O3:O148),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N154" s="6">
+        <f>MIN(O3:O148)</f>
+        <v>0</v>
+      </c>
+      <c r="O154" s="7">
+        <f>MAX(O3:O148)</f>
+        <v>0</v>
       </c>
       <c r="P154" s="4"/>
       <c r="Q154"/>
@@ -14946,76 +14955,82 @@
       <c r="Z154" s="56"/>
       <c r="AA154" s="56"/>
     </row>
-    <row r="155" spans="1:27" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="39"/>
-      <c r="H155" s="31"/>
-      <c r="I155" s="32" t="s">
-        <v>16</v>
+    <row r="155" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="J155" s="3">
-        <f>COUNT(N3:O147)</f>
-        <v>137</v>
+        <f>COUNT(P3:P148)</f>
+        <v>6</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
-      <c r="M155" s="72">
-        <f>AVERAGE(N3:P147)</f>
-        <v>43.825352112787222</v>
-      </c>
-      <c r="N155" s="6">
-        <f>MIN(N3:O147)</f>
+      <c r="M155" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O155" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P155" s="4"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155" s="55"/>
+      <c r="U155" s="55"/>
+      <c r="V155" s="55"/>
+      <c r="W155" s="55"/>
+      <c r="X155" s="55"/>
+      <c r="Y155" s="55"/>
+      <c r="Z155" s="56"/>
+      <c r="AA155" s="56"/>
+    </row>
+    <row r="156" spans="1:27" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="3">
+        <f>COUNT(N3:O148)</f>
+        <v>137</v>
+      </c>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="72">
+        <f>AVERAGE(N3:P148)</f>
+        <v>43.519580419690811</v>
+      </c>
+      <c r="N156" s="6">
+        <f>MIN(N3:O148)</f>
         <v>36.116666675079614</v>
       </c>
-      <c r="O155" s="7">
-        <f>MAX(N3:O147)</f>
+      <c r="O156" s="7">
+        <f>MAX(N3:O148)</f>
         <v>58.833333340007812</v>
       </c>
-      <c r="P155" s="5"/>
-      <c r="T155" s="57"/>
-      <c r="U155" s="57"/>
-      <c r="V155" s="57"/>
-      <c r="W155" s="57"/>
-      <c r="X155" s="57"/>
-      <c r="Y155" s="57"/>
-      <c r="Z155" s="58"/>
-      <c r="AA155" s="58"/>
-    </row>
-    <row r="156" spans="1:27" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="40"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J156" s="8">
-        <f>J155/J151</f>
-        <v>0.96478873239436624</v>
-      </c>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156"/>
-      <c r="R156"/>
-      <c r="S156"/>
-      <c r="T156" s="55"/>
-      <c r="U156" s="55"/>
-      <c r="V156" s="55"/>
-      <c r="W156" s="55"/>
-      <c r="X156" s="55"/>
-      <c r="Y156" s="55"/>
-      <c r="Z156" s="56"/>
-      <c r="AA156" s="56"/>
-    </row>
-    <row r="157" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P156" s="5"/>
+      <c r="T156" s="57"/>
+      <c r="U156" s="57"/>
+      <c r="V156" s="57"/>
+      <c r="W156" s="57"/>
+      <c r="X156" s="57"/>
+      <c r="Y156" s="57"/>
+      <c r="Z156" s="58"/>
+      <c r="AA156" s="58"/>
+    </row>
+    <row r="157" spans="1:27" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
@@ -15023,10 +15038,15 @@
       <c r="F157" s="14"/>
       <c r="G157" s="40"/>
       <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157" s="60"/>
+      <c r="I157" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J157" s="8">
+        <f>J156/J152</f>
+        <v>0.95804195804195802</v>
+      </c>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
       <c r="M157" s="1"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
@@ -15155,43 +15175,71 @@
       <c r="Z161" s="56"/>
       <c r="AA161" s="56"/>
     </row>
-    <row r="164" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="40"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164"/>
-      <c r="K164"/>
-      <c r="L164" s="60"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164"/>
-      <c r="R164"/>
-      <c r="S164"/>
-      <c r="T164" s="55"/>
-      <c r="U164" s="55"/>
-      <c r="V164" s="55"/>
-      <c r="W164" s="55"/>
-      <c r="X164" s="55"/>
-      <c r="Y164" s="55"/>
-      <c r="Z164" s="56"/>
-      <c r="AA164" s="56"/>
+    <row r="162" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162" s="60"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162"/>
+      <c r="R162"/>
+      <c r="S162"/>
+      <c r="T162" s="55"/>
+      <c r="U162" s="55"/>
+      <c r="V162" s="55"/>
+      <c r="W162" s="55"/>
+      <c r="X162" s="55"/>
+      <c r="Y162" s="55"/>
+      <c r="Z162" s="56"/>
+      <c r="AA162" s="56"/>
+    </row>
+    <row r="165" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165" s="60"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165"/>
+      <c r="R165"/>
+      <c r="S165"/>
+      <c r="T165" s="55"/>
+      <c r="U165" s="55"/>
+      <c r="V165" s="55"/>
+      <c r="W165" s="55"/>
+      <c r="X165" s="55"/>
+      <c r="Y165" s="55"/>
+      <c r="Z165" s="56"/>
+      <c r="AA165" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA147"/>
+  <autoFilter ref="A2:AA148"/>
   <sortState ref="A3:Y144">
     <sortCondition ref="A3:A144"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="M149:O149"/>
     <mergeCell ref="I150:J150"/>
+    <mergeCell ref="M150:O150"/>
+    <mergeCell ref="I151:J151"/>
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
@@ -15204,7 +15252,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A148:P148 A3:R147">
+  <conditionalFormatting sqref="A149:P149 A3:R148">
     <cfRule type="expression" dxfId="6" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
@@ -15212,12 +15260,12 @@
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q148:R148">
+  <conditionalFormatting sqref="Q149:R149">
     <cfRule type="expression" dxfId="4" priority="76">
-      <formula>$P148&gt;0</formula>
+      <formula>$P149&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="77">
-      <formula>$O167&gt;0</formula>
+      <formula>$O168&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15236,7 +15284,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A3:R148</xm:sqref>
+          <xm:sqref>A3:R149</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15248,8 +15296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17309,10 +17357,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17326,11 +17374,6 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
